--- a/teaching/traditional_assets/database/data/norway/norway_steel.xlsx
+++ b/teaching/traditional_assets/database/data/norway/norway_steel.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="ob_scana" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,25 +593,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.188</v>
+        <v>-0.229</v>
       </c>
       <c r="G2">
-        <v>-0.06607538802660753</v>
+        <v>0.007370030581039754</v>
       </c>
       <c r="H2">
-        <v>-0.06607538802660753</v>
+        <v>0.007370030581039754</v>
       </c>
       <c r="I2">
-        <v>-0.0002217294900221729</v>
+        <v>0.01779816513761468</v>
       </c>
       <c r="J2">
-        <v>-0.0002042209723649343</v>
+        <v>0.01779816513761468</v>
       </c>
       <c r="K2">
-        <v>-7.24</v>
+        <v>4.04</v>
       </c>
       <c r="L2">
-        <v>-0.1605321507760532</v>
+        <v>0.1235474006116208</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -618,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -627,79 +629,79 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>3.74</v>
+        <v>3.83</v>
       </c>
       <c r="V2">
-        <v>0.3820224719101124</v>
+        <v>0.1329861111111111</v>
       </c>
       <c r="W2">
-        <v>-0.4859060402684564</v>
+        <v>1.36026936026936</v>
       </c>
       <c r="X2">
-        <v>0.09809138791419168</v>
+        <v>0.06574908523978355</v>
       </c>
       <c r="Y2">
-        <v>-0.583997428182648</v>
+        <v>1.294520275029577</v>
       </c>
       <c r="Z2">
-        <v>1.050547402748661</v>
+        <v>3.326551373346898</v>
       </c>
       <c r="AA2">
-        <v>-0.0002145438121047877</v>
+        <v>0.05920651068158697</v>
       </c>
       <c r="AB2">
-        <v>0.06250606609514157</v>
+        <v>0.05450947487004506</v>
       </c>
       <c r="AC2">
-        <v>-0.06272060990724636</v>
+        <v>0.004697035811541912</v>
       </c>
       <c r="AD2">
-        <v>10.6</v>
+        <v>10.4</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>10.6</v>
+        <v>10.4</v>
       </c>
       <c r="AG2">
-        <v>6.859999999999999</v>
+        <v>6.57</v>
       </c>
       <c r="AH2">
-        <v>0.519862677783227</v>
+        <v>0.2653061224489796</v>
       </c>
       <c r="AI2">
-        <v>0.7811348563006631</v>
+        <v>0.6011560693641619</v>
       </c>
       <c r="AJ2">
-        <v>0.412012012012012</v>
+        <v>0.1857506361323155</v>
       </c>
       <c r="AK2">
-        <v>0.6978636826042726</v>
+        <v>0.487750556792873</v>
       </c>
       <c r="AL2">
-        <v>0.66</v>
+        <v>0.982</v>
       </c>
       <c r="AM2">
-        <v>0.4340000000000001</v>
+        <v>0.965</v>
       </c>
       <c r="AN2">
-        <v>-6.463414634146342</v>
+        <v>15.16034985422741</v>
       </c>
       <c r="AO2">
-        <v>-0.01515151515151515</v>
+        <v>0.5926680244399185</v>
       </c>
       <c r="AP2">
-        <v>-4.182926829268292</v>
+        <v>9.577259475218659</v>
       </c>
       <c r="AQ2">
-        <v>-0.02304147465437788</v>
+        <v>0.6031088082901555</v>
       </c>
     </row>
     <row r="3">
@@ -710,7 +712,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Incus Investor ASA (OB:INC)</t>
+          <t>Scana ASA (OB:SCANA)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -719,25 +721,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.188</v>
+        <v>-0.229</v>
       </c>
       <c r="G3">
-        <v>-0.06607538802660753</v>
+        <v>0.007370030581039754</v>
       </c>
       <c r="H3">
-        <v>-0.06607538802660753</v>
+        <v>0.007370030581039754</v>
       </c>
       <c r="I3">
-        <v>-0.0002217294900221729</v>
+        <v>0.01779816513761468</v>
       </c>
       <c r="J3">
-        <v>-0.0002042209723649343</v>
+        <v>0.01779816513761468</v>
       </c>
       <c r="K3">
-        <v>-7.24</v>
+        <v>4.04</v>
       </c>
       <c r="L3">
-        <v>-0.1605321507760532</v>
+        <v>0.1235474006116208</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -746,7 +748,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -755,79 +757,8786 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>3.74</v>
+        <v>3.83</v>
       </c>
       <c r="V3">
-        <v>0.3820224719101124</v>
+        <v>0.1329861111111111</v>
       </c>
       <c r="W3">
-        <v>-0.4859060402684564</v>
+        <v>1.36026936026936</v>
       </c>
       <c r="X3">
-        <v>0.09809138791419168</v>
+        <v>0.06574908523978355</v>
       </c>
       <c r="Y3">
-        <v>-0.583997428182648</v>
+        <v>1.294520275029577</v>
       </c>
       <c r="Z3">
-        <v>1.050547402748661</v>
+        <v>3.326551373346898</v>
       </c>
       <c r="AA3">
-        <v>-0.0002145438121047877</v>
+        <v>0.05920651068158697</v>
       </c>
       <c r="AB3">
-        <v>0.06250606609514157</v>
+        <v>0.05450947487004506</v>
       </c>
       <c r="AC3">
-        <v>-0.06272060990724636</v>
+        <v>0.004697035811541912</v>
       </c>
       <c r="AD3">
-        <v>10.6</v>
+        <v>10.4</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>10.6</v>
+        <v>10.4</v>
       </c>
       <c r="AG3">
-        <v>6.859999999999999</v>
+        <v>6.57</v>
       </c>
       <c r="AH3">
-        <v>0.519862677783227</v>
+        <v>0.2653061224489796</v>
       </c>
       <c r="AI3">
-        <v>0.7811348563006631</v>
+        <v>0.6011560693641619</v>
       </c>
       <c r="AJ3">
-        <v>0.412012012012012</v>
+        <v>0.1857506361323155</v>
       </c>
       <c r="AK3">
-        <v>0.6978636826042726</v>
+        <v>0.487750556792873</v>
       </c>
       <c r="AL3">
+        <v>0.982</v>
+      </c>
+      <c r="AM3">
+        <v>0.965</v>
+      </c>
+      <c r="AN3">
+        <v>15.16034985422741</v>
+      </c>
+      <c r="AO3">
+        <v>0.5926680244399185</v>
+      </c>
+      <c r="AP3">
+        <v>9.577259475218659</v>
+      </c>
+      <c r="AQ3">
+        <v>0.6031088082901555</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Scana ASA (OB:SCANA)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>OB:SCANA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Steel</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.26530612244898</v>
+      </c>
+      <c r="F2">
+        <v>0.01</v>
+      </c>
+      <c r="G2">
+        <v>28.8</v>
+      </c>
+      <c r="H2">
+        <v>37.4266430730244</v>
+      </c>
+      <c r="I2">
+        <v>35.37</v>
+      </c>
+      <c r="J2">
+        <v>33.9886430730244</v>
+      </c>
+      <c r="K2">
+        <v>10.4</v>
+      </c>
+      <c r="L2">
+        <v>0.392</v>
+      </c>
+      <c r="M2">
+        <v>0.0545094748700451</v>
+      </c>
+      <c r="N2">
+        <v>0.0563468657050511</v>
+      </c>
+      <c r="O2">
+        <v>0.0233844</v>
+      </c>
+      <c r="P2">
+        <v>0.285281632653061</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.06574908523978359</v>
+      </c>
+      <c r="T2">
+        <v>0.0540343933116369</v>
+      </c>
+      <c r="U2">
+        <v>1.19595519575813</v>
+      </c>
+      <c r="V2">
+        <v>0.947762570161799</v>
+      </c>
+      <c r="W2">
+        <v>-2.513525824047637</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>28.8</v>
+      </c>
+      <c r="AB2">
+        <v>0.0472</v>
+      </c>
+      <c r="AC2">
+        <v>0.02998</v>
+      </c>
+      <c r="AD2">
+        <v>0.22</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="AH2">
+        <v>0.867</v>
+      </c>
+      <c r="AI2">
+        <v>0.1069999999999998</v>
+      </c>
+      <c r="AJ2">
+        <v>10.4</v>
+      </c>
+      <c r="AK2">
+        <v>10.4</v>
+      </c>
+      <c r="AL2">
+        <v>0.982</v>
+      </c>
+      <c r="AM2">
+        <v>10.4</v>
+      </c>
+      <c r="AN2">
+        <v>3.83</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>-10.4</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>3.83</v>
+      </c>
+      <c r="H2">
+        <v>28.8</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K2">
+        <v>0.867</v>
+      </c>
+      <c r="L2">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="O2">
+        <v>-0.03981999999999999</v>
+      </c>
+      <c r="P2">
+        <v>-0.1411799999999999</v>
+      </c>
+      <c r="Q2">
+        <v>0.72582</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.05634686570505114</v>
+      </c>
+      <c r="C3">
+        <v>37.42664307302437</v>
+      </c>
+      <c r="D3">
+        <v>33.98864307302437</v>
+      </c>
+      <c r="E3">
+        <v>-10.008</v>
+      </c>
+      <c r="F3">
+        <v>0.392</v>
+      </c>
+      <c r="G3">
+        <v>3.83</v>
+      </c>
+      <c r="H3">
+        <v>28.8</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K3">
+        <v>0.867</v>
+      </c>
+      <c r="L3">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M3">
+        <v>0.0720104</v>
+      </c>
+      <c r="N3">
+        <v>-0.2530104</v>
+      </c>
+      <c r="O3">
+        <v>-0.05566228799999999</v>
+      </c>
+      <c r="P3">
+        <v>-0.197348112</v>
+      </c>
+      <c r="Q3">
+        <v>0.669651888</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.0540343933116369</v>
+      </c>
+      <c r="T3">
+        <v>0.9477625701617988</v>
+      </c>
+      <c r="U3">
+        <v>0.1837</v>
+      </c>
+      <c r="V3">
+        <v>-0.5529756812904801</v>
+      </c>
+      <c r="W3">
+        <v>0.2852816326530612</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>-2.513525824047637</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.05809086570505114</v>
+      </c>
+      <c r="C4">
+        <v>35.8197395728961</v>
+      </c>
+      <c r="D4">
+        <v>32.7737395728961</v>
+      </c>
+      <c r="E4">
+        <v>-9.616</v>
+      </c>
+      <c r="F4">
+        <v>0.784</v>
+      </c>
+      <c r="G4">
+        <v>3.83</v>
+      </c>
+      <c r="H4">
+        <v>28.8</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K4">
+        <v>0.867</v>
+      </c>
+      <c r="L4">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M4">
+        <v>0.1440208</v>
+      </c>
+      <c r="N4">
+        <v>-0.3250207999999999</v>
+      </c>
+      <c r="O4">
+        <v>-0.07150457599999999</v>
+      </c>
+      <c r="P4">
+        <v>-0.253516224</v>
+      </c>
+      <c r="Q4">
+        <v>0.613483776</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.05449086671277605</v>
+      </c>
+      <c r="T4">
+        <v>0.9574336167961028</v>
+      </c>
+      <c r="U4">
+        <v>0.1837</v>
+      </c>
+      <c r="V4">
+        <v>-0.2764878406452401</v>
+      </c>
+      <c r="W4">
+        <v>0.2344908163265306</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>-1.256762912023818</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.05983486570505114</v>
+      </c>
+      <c r="C5">
+        <v>34.29669072142131</v>
+      </c>
+      <c r="D5">
+        <v>31.64269072142132</v>
+      </c>
+      <c r="E5">
+        <v>-9.224</v>
+      </c>
+      <c r="F5">
+        <v>1.176</v>
+      </c>
+      <c r="G5">
+        <v>3.83</v>
+      </c>
+      <c r="H5">
+        <v>28.8</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K5">
+        <v>0.867</v>
+      </c>
+      <c r="L5">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M5">
+        <v>0.2160312</v>
+      </c>
+      <c r="N5">
+        <v>-0.3970311999999999</v>
+      </c>
+      <c r="O5">
+        <v>-0.08734686399999998</v>
+      </c>
+      <c r="P5">
+        <v>-0.3096843359999999</v>
+      </c>
+      <c r="Q5">
+        <v>0.5573156640000001</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.0549567519366191</v>
+      </c>
+      <c r="T5">
+        <v>0.9673040664537945</v>
+      </c>
+      <c r="U5">
+        <v>0.1837</v>
+      </c>
+      <c r="V5">
+        <v>-0.1843252270968267</v>
+      </c>
+      <c r="W5">
+        <v>0.2175605442176871</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>-0.8378419413492124</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.06157886570505115</v>
+      </c>
+      <c r="C6">
+        <v>32.84910445584504</v>
+      </c>
+      <c r="D6">
+        <v>30.58710445584503</v>
+      </c>
+      <c r="E6">
+        <v>-8.832000000000001</v>
+      </c>
+      <c r="F6">
+        <v>1.568</v>
+      </c>
+      <c r="G6">
+        <v>3.83</v>
+      </c>
+      <c r="H6">
+        <v>28.8</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K6">
+        <v>0.867</v>
+      </c>
+      <c r="L6">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M6">
+        <v>0.2880416</v>
+      </c>
+      <c r="N6">
+        <v>-0.4690415999999999</v>
+      </c>
+      <c r="O6">
+        <v>-0.103189152</v>
+      </c>
+      <c r="P6">
+        <v>-0.3658524479999999</v>
+      </c>
+      <c r="Q6">
+        <v>0.5011475520000001</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.05543234310262556</v>
+      </c>
+      <c r="T6">
+        <v>0.9773801504793551</v>
+      </c>
+      <c r="U6">
+        <v>0.1837</v>
+      </c>
+      <c r="V6">
+        <v>-0.13824392032262</v>
+      </c>
+      <c r="W6">
+        <v>0.2090954081632653</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>-0.6283814560119092</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.06332286570505115</v>
+      </c>
+      <c r="C7">
+        <v>31.4696723847247</v>
+      </c>
+      <c r="D7">
+        <v>29.59967238472471</v>
+      </c>
+      <c r="E7">
+        <v>-8.44</v>
+      </c>
+      <c r="F7">
+        <v>1.96</v>
+      </c>
+      <c r="G7">
+        <v>3.83</v>
+      </c>
+      <c r="H7">
+        <v>28.8</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K7">
+        <v>0.867</v>
+      </c>
+      <c r="L7">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M7">
+        <v>0.360052</v>
+      </c>
+      <c r="N7">
+        <v>-0.541052</v>
+      </c>
+      <c r="O7">
+        <v>-0.11903144</v>
+      </c>
+      <c r="P7">
+        <v>-0.42202056</v>
+      </c>
+      <c r="Q7">
+        <v>0.44497944</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.05591794671423214</v>
+      </c>
+      <c r="T7">
+        <v>0.9876683625896641</v>
+      </c>
+      <c r="U7">
+        <v>0.1837</v>
+      </c>
+      <c r="V7">
+        <v>-0.110595136258096</v>
+      </c>
+      <c r="W7">
+        <v>0.2040163265306122</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>-0.5027051648095273</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.06506686570505114</v>
+      </c>
+      <c r="C8">
+        <v>30.15200033939253</v>
+      </c>
+      <c r="D8">
+        <v>28.67400033939252</v>
+      </c>
+      <c r="E8">
+        <v>-8.048</v>
+      </c>
+      <c r="F8">
+        <v>2.352</v>
+      </c>
+      <c r="G8">
+        <v>3.83</v>
+      </c>
+      <c r="H8">
+        <v>28.8</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K8">
+        <v>0.867</v>
+      </c>
+      <c r="L8">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M8">
+        <v>0.4320624</v>
+      </c>
+      <c r="N8">
+        <v>-0.6130623999999999</v>
+      </c>
+      <c r="O8">
+        <v>-0.134873728</v>
+      </c>
+      <c r="P8">
+        <v>-0.4781886719999999</v>
+      </c>
+      <c r="Q8">
+        <v>0.3888113280000001</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.05641388231757503</v>
+      </c>
+      <c r="T8">
+        <v>0.9981754728299796</v>
+      </c>
+      <c r="U8">
+        <v>0.1837</v>
+      </c>
+      <c r="V8">
+        <v>-0.09216261354841336</v>
+      </c>
+      <c r="W8">
+        <v>0.2006302721088435</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>-0.4189209706746062</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.06681086570505114</v>
+      </c>
+      <c r="C9">
+        <v>28.89046975627858</v>
+      </c>
+      <c r="D9">
+        <v>27.80446975627859</v>
+      </c>
+      <c r="E9">
+        <v>-7.656</v>
+      </c>
+      <c r="F9">
+        <v>2.744000000000001</v>
+      </c>
+      <c r="G9">
+        <v>3.83</v>
+      </c>
+      <c r="H9">
+        <v>28.8</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K9">
+        <v>0.867</v>
+      </c>
+      <c r="L9">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M9">
+        <v>0.5040728000000001</v>
+      </c>
+      <c r="N9">
+        <v>-0.6850728</v>
+      </c>
+      <c r="O9">
+        <v>-0.150716016</v>
+      </c>
+      <c r="P9">
+        <v>-0.5343567840000001</v>
+      </c>
+      <c r="Q9">
+        <v>0.3326432159999999</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.05692048320271025</v>
+      </c>
+      <c r="T9">
+        <v>1.008908542430302</v>
+      </c>
+      <c r="U9">
+        <v>0.1837</v>
+      </c>
+      <c r="V9">
+        <v>-0.07899652589863999</v>
+      </c>
+      <c r="W9">
+        <v>0.1982116618075802</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>-0.3590751177210909</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.06855486570505115</v>
+      </c>
+      <c r="C10">
+        <v>27.68012353815837</v>
+      </c>
+      <c r="D10">
+        <v>26.98612353815837</v>
+      </c>
+      <c r="E10">
+        <v>-7.264</v>
+      </c>
+      <c r="F10">
+        <v>3.136</v>
+      </c>
+      <c r="G10">
+        <v>3.83</v>
+      </c>
+      <c r="H10">
+        <v>28.8</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K10">
+        <v>0.867</v>
+      </c>
+      <c r="L10">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M10">
+        <v>0.5760832</v>
+      </c>
+      <c r="N10">
+        <v>-0.7570832</v>
+      </c>
+      <c r="O10">
+        <v>-0.166558304</v>
+      </c>
+      <c r="P10">
+        <v>-0.590524896</v>
+      </c>
+      <c r="Q10">
+        <v>0.276475104</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.05743809715056579</v>
+      </c>
+      <c r="T10">
+        <v>1.019874939630631</v>
+      </c>
+      <c r="U10">
+        <v>0.1837</v>
+      </c>
+      <c r="V10">
+        <v>-0.06912196016131002</v>
+      </c>
+      <c r="W10">
+        <v>0.1963977040816327</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>-0.3141907280059546</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.07029886570505114</v>
+      </c>
+      <c r="C11">
+        <v>26.51657149523815</v>
+      </c>
+      <c r="D11">
+        <v>26.21457149523815</v>
+      </c>
+      <c r="E11">
+        <v>-6.872</v>
+      </c>
+      <c r="F11">
+        <v>3.528</v>
+      </c>
+      <c r="G11">
+        <v>3.83</v>
+      </c>
+      <c r="H11">
+        <v>28.8</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K11">
+        <v>0.867</v>
+      </c>
+      <c r="L11">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M11">
+        <v>0.6480936</v>
+      </c>
+      <c r="N11">
+        <v>-0.8290936</v>
+      </c>
+      <c r="O11">
+        <v>-0.182400592</v>
+      </c>
+      <c r="P11">
+        <v>-0.646693008</v>
+      </c>
+      <c r="Q11">
+        <v>0.220306992</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.05796708722914344</v>
+      </c>
+      <c r="T11">
+        <v>1.031082356549649</v>
+      </c>
+      <c r="U11">
+        <v>0.1837</v>
+      </c>
+      <c r="V11">
+        <v>-0.06144174236560889</v>
+      </c>
+      <c r="W11">
+        <v>0.1949868480725623</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>-0.279280647116404</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.07204286570505115</v>
+      </c>
+      <c r="C12">
+        <v>25.39591155639167</v>
+      </c>
+      <c r="D12">
+        <v>25.48591155639167</v>
+      </c>
+      <c r="E12">
+        <v>-6.48</v>
+      </c>
+      <c r="F12">
+        <v>3.92</v>
+      </c>
+      <c r="G12">
+        <v>3.83</v>
+      </c>
+      <c r="H12">
+        <v>28.8</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K12">
+        <v>0.867</v>
+      </c>
+      <c r="L12">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M12">
+        <v>0.7201040000000001</v>
+      </c>
+      <c r="N12">
+        <v>-0.901104</v>
+      </c>
+      <c r="O12">
+        <v>-0.19824288</v>
+      </c>
+      <c r="P12">
+        <v>-0.70286112</v>
+      </c>
+      <c r="Q12">
+        <v>0.16413888</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.0585078326428006</v>
+      </c>
+      <c r="T12">
+        <v>1.042538827177979</v>
+      </c>
+      <c r="U12">
+        <v>0.1837</v>
+      </c>
+      <c r="V12">
+        <v>-0.05529756812904801</v>
+      </c>
+      <c r="W12">
+        <v>0.1938581632653061</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>-0.2513525824047635</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.07378686570505114</v>
+      </c>
+      <c r="C13">
+        <v>24.31466376510283</v>
+      </c>
+      <c r="D13">
+        <v>24.79666376510283</v>
+      </c>
+      <c r="E13">
+        <v>-6.088</v>
+      </c>
+      <c r="F13">
+        <v>4.312</v>
+      </c>
+      <c r="G13">
+        <v>3.83</v>
+      </c>
+      <c r="H13">
+        <v>28.8</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K13">
+        <v>0.867</v>
+      </c>
+      <c r="L13">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M13">
+        <v>0.7921144000000001</v>
+      </c>
+      <c r="N13">
+        <v>-0.9731144</v>
+      </c>
+      <c r="O13">
+        <v>-0.214085168</v>
+      </c>
+      <c r="P13">
+        <v>-0.7590292320000001</v>
+      </c>
+      <c r="Q13">
+        <v>0.1079707679999999</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.05906072963878711</v>
+      </c>
+      <c r="T13">
+        <v>1.054252746584473</v>
+      </c>
+      <c r="U13">
+        <v>0.1837</v>
+      </c>
+      <c r="V13">
+        <v>-0.05027051648095273</v>
+      </c>
+      <c r="W13">
+        <v>0.192934693877551</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>-0.2285023476406942</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.07553086570505113</v>
+      </c>
+      <c r="C14">
+        <v>23.26971470357424</v>
+      </c>
+      <c r="D14">
+        <v>24.14371470357424</v>
+      </c>
+      <c r="E14">
+        <v>-5.696000000000001</v>
+      </c>
+      <c r="F14">
+        <v>4.704</v>
+      </c>
+      <c r="G14">
+        <v>3.83</v>
+      </c>
+      <c r="H14">
+        <v>28.8</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K14">
+        <v>0.867</v>
+      </c>
+      <c r="L14">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M14">
+        <v>0.8641247999999999</v>
+      </c>
+      <c r="N14">
+        <v>-1.0451248</v>
+      </c>
+      <c r="O14">
+        <v>-0.229927456</v>
+      </c>
+      <c r="P14">
+        <v>-0.815197344</v>
+      </c>
+      <c r="Q14">
+        <v>0.051802656</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.05962619247559151</v>
+      </c>
+      <c r="T14">
+        <v>1.066232891432024</v>
+      </c>
+      <c r="U14">
+        <v>0.1837</v>
+      </c>
+      <c r="V14">
+        <v>-0.04608130677420668</v>
+      </c>
+      <c r="W14">
+        <v>0.1921651360544218</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>-0.2094604853373032</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.07727486570505114</v>
+      </c>
+      <c r="C15">
+        <v>22.25827047214702</v>
+      </c>
+      <c r="D15">
+        <v>23.52427047214702</v>
+      </c>
+      <c r="E15">
+        <v>-5.303999999999999</v>
+      </c>
+      <c r="F15">
+        <v>5.096000000000001</v>
+      </c>
+      <c r="G15">
+        <v>3.83</v>
+      </c>
+      <c r="H15">
+        <v>28.8</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K15">
+        <v>0.867</v>
+      </c>
+      <c r="L15">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M15">
+        <v>0.9361352000000002</v>
+      </c>
+      <c r="N15">
+        <v>-1.1171352</v>
+      </c>
+      <c r="O15">
+        <v>-0.245769744</v>
+      </c>
+      <c r="P15">
+        <v>-0.8713654560000001</v>
+      </c>
+      <c r="Q15">
+        <v>-0.004365456000000156</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.06020465445806956</v>
+      </c>
+      <c r="T15">
+        <v>1.078488441908254</v>
+      </c>
+      <c r="U15">
+        <v>0.1837</v>
+      </c>
+      <c r="V15">
+        <v>-0.04253659086849846</v>
+      </c>
+      <c r="W15">
+        <v>0.1915139717425432</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>-0.1933481403113566</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.07901886570505115</v>
+      </c>
+      <c r="C16">
+        <v>21.27781672596893</v>
+      </c>
+      <c r="D16">
+        <v>22.93581672596893</v>
+      </c>
+      <c r="E16">
+        <v>-4.911999999999999</v>
+      </c>
+      <c r="F16">
+        <v>5.488000000000001</v>
+      </c>
+      <c r="G16">
+        <v>3.83</v>
+      </c>
+      <c r="H16">
+        <v>28.8</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K16">
+        <v>0.867</v>
+      </c>
+      <c r="L16">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M16">
+        <v>1.0081456</v>
+      </c>
+      <c r="N16">
+        <v>-1.1891456</v>
+      </c>
+      <c r="O16">
+        <v>-0.261612032</v>
+      </c>
+      <c r="P16">
+        <v>-0.9275335680000002</v>
+      </c>
+      <c r="Q16">
+        <v>-0.0605335680000002</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.06079656904479132</v>
+      </c>
+      <c r="T16">
+        <v>1.091029005186257</v>
+      </c>
+      <c r="U16">
+        <v>0.1837</v>
+      </c>
+      <c r="V16">
+        <v>-0.03949826294932</v>
+      </c>
+      <c r="W16">
+        <v>0.1909558309037901</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>-0.1795375588605455</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.08076286570505113</v>
+      </c>
+      <c r="C17">
+        <v>20.32608456332125</v>
+      </c>
+      <c r="D17">
+        <v>22.37608456332125</v>
+      </c>
+      <c r="E17">
+        <v>-4.52</v>
+      </c>
+      <c r="F17">
+        <v>5.88</v>
+      </c>
+      <c r="G17">
+        <v>3.83</v>
+      </c>
+      <c r="H17">
+        <v>28.8</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K17">
+        <v>0.867</v>
+      </c>
+      <c r="L17">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M17">
+        <v>1.080156</v>
+      </c>
+      <c r="N17">
+        <v>-1.261156</v>
+      </c>
+      <c r="O17">
+        <v>-0.2774543199999999</v>
+      </c>
+      <c r="P17">
+        <v>-0.9837016799999998</v>
+      </c>
+      <c r="Q17">
+        <v>-0.1167016799999998</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.06140241103355355</v>
+      </c>
+      <c r="T17">
+        <v>1.103864640541389</v>
+      </c>
+      <c r="U17">
+        <v>0.1837</v>
+      </c>
+      <c r="V17">
+        <v>-0.03686504541936534</v>
+      </c>
+      <c r="W17">
+        <v>0.1904721088435374</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>-0.1675683882698424</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.08250686570505114</v>
+      </c>
+      <c r="C18">
+        <v>19.40102128977995</v>
+      </c>
+      <c r="D18">
+        <v>21.84302128977995</v>
+      </c>
+      <c r="E18">
+        <v>-4.128</v>
+      </c>
+      <c r="F18">
+        <v>6.272</v>
+      </c>
+      <c r="G18">
+        <v>3.83</v>
+      </c>
+      <c r="H18">
+        <v>28.8</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K18">
+        <v>0.867</v>
+      </c>
+      <c r="L18">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M18">
+        <v>1.1521664</v>
+      </c>
+      <c r="N18">
+        <v>-1.3331664</v>
+      </c>
+      <c r="O18">
+        <v>-0.293296608</v>
+      </c>
+      <c r="P18">
+        <v>-1.039869792</v>
+      </c>
+      <c r="Q18">
+        <v>-0.1728697920000002</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.06202267783157206</v>
+      </c>
+      <c r="T18">
+        <v>1.11700588626212</v>
+      </c>
+      <c r="U18">
+        <v>0.1837</v>
+      </c>
+      <c r="V18">
+        <v>-0.03456098008065501</v>
+      </c>
+      <c r="W18">
+        <v>0.1900488520408163</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>-0.1570953640029773</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.08425086570505114</v>
+      </c>
+      <c r="C19">
+        <v>18.50076526403522</v>
+      </c>
+      <c r="D19">
+        <v>21.33476526403522</v>
+      </c>
+      <c r="E19">
+        <v>-3.736</v>
+      </c>
+      <c r="F19">
+        <v>6.664000000000001</v>
+      </c>
+      <c r="G19">
+        <v>3.83</v>
+      </c>
+      <c r="H19">
+        <v>28.8</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K19">
+        <v>0.867</v>
+      </c>
+      <c r="L19">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M19">
+        <v>1.2241768</v>
+      </c>
+      <c r="N19">
+        <v>-1.4051768</v>
+      </c>
+      <c r="O19">
+        <v>-0.309138896</v>
+      </c>
+      <c r="P19">
+        <v>-1.096037904</v>
+      </c>
+      <c r="Q19">
+        <v>-0.2290379040000001</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.06265789081749461</v>
+      </c>
+      <c r="T19">
+        <v>1.130463788506242</v>
+      </c>
+      <c r="U19">
+        <v>0.1837</v>
+      </c>
+      <c r="V19">
+        <v>-0.03252798125238118</v>
+      </c>
+      <c r="W19">
+        <v>0.1896753901560624</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>-0.1478544602380962</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.08599486570505115</v>
+      </c>
+      <c r="C20">
+        <v>17.62362417566603</v>
+      </c>
+      <c r="D20">
+        <v>20.84962417566603</v>
+      </c>
+      <c r="E20">
+        <v>-3.344</v>
+      </c>
+      <c r="F20">
+        <v>7.056</v>
+      </c>
+      <c r="G20">
+        <v>3.83</v>
+      </c>
+      <c r="H20">
+        <v>28.8</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K20">
+        <v>0.867</v>
+      </c>
+      <c r="L20">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M20">
+        <v>1.2961872</v>
+      </c>
+      <c r="N20">
+        <v>-1.4771872</v>
+      </c>
+      <c r="O20">
+        <v>-0.324981184</v>
+      </c>
+      <c r="P20">
+        <v>-1.152206016</v>
+      </c>
+      <c r="Q20">
+        <v>-0.2852060160000001</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.06330859680307382</v>
+      </c>
+      <c r="T20">
+        <v>1.144249932268513</v>
+      </c>
+      <c r="U20">
+        <v>0.1837</v>
+      </c>
+      <c r="V20">
+        <v>-0.03072087118280445</v>
+      </c>
+      <c r="W20">
+        <v>0.1893434240362812</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>-0.139640323558202</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.08773886570505116</v>
+      </c>
+      <c r="C21">
+        <v>16.76805622073039</v>
+      </c>
+      <c r="D21">
+        <v>20.38605622073039</v>
+      </c>
+      <c r="E21">
+        <v>-2.952</v>
+      </c>
+      <c r="F21">
+        <v>7.448</v>
+      </c>
+      <c r="G21">
+        <v>3.83</v>
+      </c>
+      <c r="H21">
+        <v>28.8</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K21">
+        <v>0.867</v>
+      </c>
+      <c r="L21">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M21">
+        <v>1.3681976</v>
+      </c>
+      <c r="N21">
+        <v>-1.5491976</v>
+      </c>
+      <c r="O21">
+        <v>-0.340823472</v>
+      </c>
+      <c r="P21">
+        <v>-1.208374128</v>
+      </c>
+      <c r="Q21">
+        <v>-0.341374128</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.06397536960311177</v>
+      </c>
+      <c r="T21">
+        <v>1.158376474642199</v>
+      </c>
+      <c r="U21">
+        <v>0.1837</v>
+      </c>
+      <c r="V21">
+        <v>-0.02910398322581474</v>
+      </c>
+      <c r="W21">
+        <v>0.1890464017185821</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>-0.1322908328446124</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.08948286570505115</v>
+      </c>
+      <c r="C22">
+        <v>15.93265373397299</v>
+      </c>
+      <c r="D22">
+        <v>19.942653733973</v>
+      </c>
+      <c r="E22">
+        <v>-2.56</v>
+      </c>
+      <c r="F22">
+        <v>7.840000000000001</v>
+      </c>
+      <c r="G22">
+        <v>3.83</v>
+      </c>
+      <c r="H22">
+        <v>28.8</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K22">
+        <v>0.867</v>
+      </c>
+      <c r="L22">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M22">
+        <v>1.440208</v>
+      </c>
+      <c r="N22">
+        <v>-1.621208</v>
+      </c>
+      <c r="O22">
+        <v>-0.3566657600000001</v>
+      </c>
+      <c r="P22">
+        <v>-1.26454224</v>
+      </c>
+      <c r="Q22">
+        <v>-0.3975422400000002</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.06465881172315066</v>
+      </c>
+      <c r="T22">
+        <v>1.172856180575226</v>
+      </c>
+      <c r="U22">
+        <v>0.1837</v>
+      </c>
+      <c r="V22">
+        <v>-0.027648784064524</v>
+      </c>
+      <c r="W22">
+        <v>0.1887790816326531</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>-0.1256762912023819</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.09122686570505115</v>
+      </c>
+      <c r="C23">
+        <v>15.11612891158736</v>
+      </c>
+      <c r="D23">
+        <v>19.51812891158736</v>
+      </c>
+      <c r="E23">
+        <v>-2.167999999999999</v>
+      </c>
+      <c r="F23">
+        <v>8.232000000000001</v>
+      </c>
+      <c r="G23">
+        <v>3.83</v>
+      </c>
+      <c r="H23">
+        <v>28.8</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K23">
+        <v>0.867</v>
+      </c>
+      <c r="L23">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M23">
+        <v>1.5122184</v>
+      </c>
+      <c r="N23">
+        <v>-1.6932184</v>
+      </c>
+      <c r="O23">
+        <v>-0.372508048</v>
+      </c>
+      <c r="P23">
+        <v>-1.320710352</v>
+      </c>
+      <c r="Q23">
+        <v>-0.4537103520000001</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.06535955617534245</v>
+      </c>
+      <c r="T23">
+        <v>1.187702461342001</v>
+      </c>
+      <c r="U23">
+        <v>0.1837</v>
+      </c>
+      <c r="V23">
+        <v>-0.02633217529954666</v>
+      </c>
+      <c r="W23">
+        <v>0.1885372206025267</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>-0.1196917059070302</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.09297086570505114</v>
+      </c>
+      <c r="C24">
+        <v>14.31730131951007</v>
+      </c>
+      <c r="D24">
+        <v>19.11130131951007</v>
+      </c>
+      <c r="E24">
+        <v>-1.776</v>
+      </c>
+      <c r="F24">
+        <v>8.624000000000001</v>
+      </c>
+      <c r="G24">
+        <v>3.83</v>
+      </c>
+      <c r="H24">
+        <v>28.8</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K24">
+        <v>0.867</v>
+      </c>
+      <c r="L24">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M24">
+        <v>1.5842288</v>
+      </c>
+      <c r="N24">
+        <v>-1.7652288</v>
+      </c>
+      <c r="O24">
+        <v>-0.388350336</v>
+      </c>
+      <c r="P24">
+        <v>-1.376878464</v>
+      </c>
+      <c r="Q24">
+        <v>-0.509878464</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.06607826843400068</v>
+      </c>
+      <c r="T24">
+        <v>1.202929415974591</v>
+      </c>
+      <c r="U24">
+        <v>0.1837</v>
+      </c>
+      <c r="V24">
+        <v>-0.02513525824047637</v>
+      </c>
+      <c r="W24">
+        <v>0.1883173469387755</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>-0.1142511738203471</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.09471486570505114</v>
+      </c>
+      <c r="C25">
+        <v>13.5350869320483</v>
+      </c>
+      <c r="D25">
+        <v>18.7210869320483</v>
+      </c>
+      <c r="E25">
+        <v>-1.383999999999999</v>
+      </c>
+      <c r="F25">
+        <v>9.016000000000002</v>
+      </c>
+      <c r="G25">
+        <v>3.83</v>
+      </c>
+      <c r="H25">
+        <v>28.8</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K25">
+        <v>0.867</v>
+      </c>
+      <c r="L25">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M25">
+        <v>1.6562392</v>
+      </c>
+      <c r="N25">
+        <v>-1.8372392</v>
+      </c>
+      <c r="O25">
+        <v>-0.4041926240000001</v>
+      </c>
+      <c r="P25">
+        <v>-1.433046576</v>
+      </c>
+      <c r="Q25">
+        <v>-0.5660465760000002</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.06681564854353315</v>
+      </c>
+      <c r="T25">
+        <v>1.218551875922313</v>
+      </c>
+      <c r="U25">
+        <v>0.1837</v>
+      </c>
+      <c r="V25">
+        <v>-0.02404242092567304</v>
+      </c>
+      <c r="W25">
+        <v>0.1881165927240462</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>-0.1092837314803321</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.09645886570505113</v>
+      </c>
+      <c r="C26">
+        <v>12.76848848649282</v>
+      </c>
+      <c r="D26">
+        <v>18.34648848649281</v>
+      </c>
+      <c r="E26">
+        <v>-0.9920000000000009</v>
+      </c>
+      <c r="F26">
+        <v>9.407999999999999</v>
+      </c>
+      <c r="G26">
+        <v>3.83</v>
+      </c>
+      <c r="H26">
+        <v>28.8</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K26">
+        <v>0.867</v>
+      </c>
+      <c r="L26">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M26">
+        <v>1.7282496</v>
+      </c>
+      <c r="N26">
+        <v>-1.9092496</v>
+      </c>
+      <c r="O26">
+        <v>-0.420034912</v>
+      </c>
+      <c r="P26">
+        <v>-1.489214688</v>
+      </c>
+      <c r="Q26">
+        <v>-0.6222146879999999</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.06757243339279018</v>
+      </c>
+      <c r="T26">
+        <v>1.23458545323708</v>
+      </c>
+      <c r="U26">
+        <v>0.1837</v>
+      </c>
+      <c r="V26">
+        <v>-0.02304065338710334</v>
+      </c>
+      <c r="W26">
+        <v>0.1879325680272109</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>-0.1047302426686516</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.09820286570505114</v>
+      </c>
+      <c r="C27">
+        <v>12.01658697300734</v>
+      </c>
+      <c r="D27">
+        <v>17.98658697300734</v>
+      </c>
+      <c r="E27">
+        <v>-0.5999999999999996</v>
+      </c>
+      <c r="F27">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="G27">
+        <v>3.83</v>
+      </c>
+      <c r="H27">
+        <v>28.8</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K27">
+        <v>0.867</v>
+      </c>
+      <c r="L27">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M27">
+        <v>1.80026</v>
+      </c>
+      <c r="N27">
+        <v>-1.98126</v>
+      </c>
+      <c r="O27">
+        <v>-0.4358772000000001</v>
+      </c>
+      <c r="P27">
+        <v>-1.5453828</v>
+      </c>
+      <c r="Q27">
+        <v>-0.6783828000000001</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.06834939917136071</v>
+      </c>
+      <c r="T27">
+        <v>1.251046592613574</v>
+      </c>
+      <c r="U27">
+        <v>0.1837</v>
+      </c>
+      <c r="V27">
+        <v>-0.0221190272516192</v>
+      </c>
+      <c r="W27">
+        <v>0.1877632653061224</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>-0.1005410329619054</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.09994686570505112</v>
+      </c>
+      <c r="C28">
+        <v>11.27853410689951</v>
+      </c>
+      <c r="D28">
+        <v>17.64053410689951</v>
+      </c>
+      <c r="E28">
+        <v>-0.2079999999999984</v>
+      </c>
+      <c r="F28">
+        <v>10.192</v>
+      </c>
+      <c r="G28">
+        <v>3.83</v>
+      </c>
+      <c r="H28">
+        <v>28.8</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K28">
+        <v>0.867</v>
+      </c>
+      <c r="L28">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M28">
+        <v>1.8722704</v>
+      </c>
+      <c r="N28">
+        <v>-2.0532704</v>
+      </c>
+      <c r="O28">
+        <v>-0.4517194880000001</v>
+      </c>
+      <c r="P28">
+        <v>-1.601550912</v>
+      </c>
+      <c r="Q28">
+        <v>-0.734550912</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.06914736402502773</v>
+      </c>
+      <c r="T28">
+        <v>1.267952627648893</v>
+      </c>
+      <c r="U28">
+        <v>0.1837</v>
+      </c>
+      <c r="V28">
+        <v>-0.02126829543424923</v>
+      </c>
+      <c r="W28">
+        <v>0.1876069858712716</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>-0.0966740701556783</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.1016908657050511</v>
+      </c>
+      <c r="C29">
+        <v>10.55354565346681</v>
+      </c>
+      <c r="D29">
+        <v>17.30754565346681</v>
+      </c>
+      <c r="E29">
+        <v>0.1840000000000011</v>
+      </c>
+      <c r="F29">
+        <v>10.584</v>
+      </c>
+      <c r="G29">
+        <v>3.83</v>
+      </c>
+      <c r="H29">
+        <v>28.8</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K29">
+        <v>0.867</v>
+      </c>
+      <c r="L29">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M29">
+        <v>1.9442808</v>
+      </c>
+      <c r="N29">
+        <v>-2.1252808</v>
+      </c>
+      <c r="O29">
+        <v>-0.467561776</v>
+      </c>
+      <c r="P29">
+        <v>-1.657719024</v>
+      </c>
+      <c r="Q29">
+        <v>-0.7907190239999999</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.06996719092948019</v>
+      </c>
+      <c r="T29">
+        <v>1.285321841726275</v>
+      </c>
+      <c r="U29">
+        <v>0.1837</v>
+      </c>
+      <c r="V29">
+        <v>-0.0204805807885363</v>
+      </c>
+      <c r="W29">
+        <v>0.1874622826908541</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>-0.09309354903880118</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.1034348657050511</v>
+      </c>
+      <c r="C30">
+        <v>9.840895494850539</v>
+      </c>
+      <c r="D30">
+        <v>16.98689549485054</v>
+      </c>
+      <c r="E30">
+        <v>0.5760000000000023</v>
+      </c>
+      <c r="F30">
+        <v>10.976</v>
+      </c>
+      <c r="G30">
+        <v>3.83</v>
+      </c>
+      <c r="H30">
+        <v>28.8</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K30">
+        <v>0.867</v>
+      </c>
+      <c r="L30">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M30">
+        <v>2.0162912</v>
+      </c>
+      <c r="N30">
+        <v>-2.1972912</v>
+      </c>
+      <c r="O30">
+        <v>-0.4834040640000001</v>
+      </c>
+      <c r="P30">
+        <v>-1.713887136</v>
+      </c>
+      <c r="Q30">
+        <v>-0.8468871360000003</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.07080979080350074</v>
+      </c>
+      <c r="T30">
+        <v>1.303173533972473</v>
+      </c>
+      <c r="U30">
+        <v>0.1837</v>
+      </c>
+      <c r="V30">
+        <v>-0.01974913147466</v>
+      </c>
+      <c r="W30">
+        <v>0.1873279154518951</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>-0.08976877943027284</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.1051788657050511</v>
+      </c>
+      <c r="C31">
+        <v>9.139910344419642</v>
+      </c>
+      <c r="D31">
+        <v>16.67791034441964</v>
+      </c>
+      <c r="E31">
+        <v>0.968</v>
+      </c>
+      <c r="F31">
+        <v>11.368</v>
+      </c>
+      <c r="G31">
+        <v>3.83</v>
+      </c>
+      <c r="H31">
+        <v>28.8</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K31">
+        <v>0.867</v>
+      </c>
+      <c r="L31">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M31">
+        <v>2.0883016</v>
+      </c>
+      <c r="N31">
+        <v>-2.2693016</v>
+      </c>
+      <c r="O31">
+        <v>-0.499246352</v>
+      </c>
+      <c r="P31">
+        <v>-1.770055248</v>
+      </c>
+      <c r="Q31">
+        <v>-0.9030552479999998</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.07167612588524018</v>
+      </c>
+      <c r="T31">
+        <v>1.321528090788987</v>
+      </c>
+      <c r="U31">
+        <v>0.1837</v>
+      </c>
+      <c r="V31">
+        <v>-0.01906812694105104</v>
+      </c>
+      <c r="W31">
+        <v>0.1872028149190711</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>-0.08667330427750475</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.1069228657050511</v>
+      </c>
+      <c r="C32">
+        <v>8.449965027709245</v>
+      </c>
+      <c r="D32">
+        <v>16.37996502770925</v>
+      </c>
+      <c r="E32">
+        <v>1.359999999999999</v>
+      </c>
+      <c r="F32">
+        <v>11.76</v>
+      </c>
+      <c r="G32">
+        <v>3.83</v>
+      </c>
+      <c r="H32">
+        <v>28.8</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K32">
+        <v>0.867</v>
+      </c>
+      <c r="L32">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M32">
+        <v>2.160312</v>
+      </c>
+      <c r="N32">
+        <v>-2.341312</v>
+      </c>
+      <c r="O32">
+        <v>-0.51508864</v>
+      </c>
+      <c r="P32">
+        <v>-1.82622336</v>
+      </c>
+      <c r="Q32">
+        <v>-0.9592233599999997</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.07256721339788648</v>
+      </c>
+      <c r="T32">
+        <v>1.340407063514544</v>
+      </c>
+      <c r="U32">
+        <v>0.1837</v>
+      </c>
+      <c r="V32">
+        <v>-0.01843252270968267</v>
+      </c>
+      <c r="W32">
+        <v>0.1870860544217687</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>-0.08378419413492133</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.1086668657050511</v>
+      </c>
+      <c r="C33">
+        <v>7.770478260308138</v>
+      </c>
+      <c r="D33">
+        <v>16.09247826030814</v>
+      </c>
+      <c r="E33">
+        <v>1.752000000000001</v>
+      </c>
+      <c r="F33">
+        <v>12.152</v>
+      </c>
+      <c r="G33">
+        <v>3.83</v>
+      </c>
+      <c r="H33">
+        <v>28.8</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K33">
+        <v>0.867</v>
+      </c>
+      <c r="L33">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M33">
+        <v>2.2323224</v>
+      </c>
+      <c r="N33">
+        <v>-2.4133224</v>
+      </c>
+      <c r="O33">
+        <v>-0.5309309280000001</v>
+      </c>
+      <c r="P33">
+        <v>-1.882391472</v>
+      </c>
+      <c r="Q33">
+        <v>-1.015391472</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.07348412953408773</v>
+      </c>
+      <c r="T33">
+        <v>1.359833252840842</v>
+      </c>
+      <c r="U33">
+        <v>0.1837</v>
+      </c>
+      <c r="V33">
+        <v>-0.01783792520291871</v>
+      </c>
+      <c r="W33">
+        <v>0.1869768268597762</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>-0.08108147819508504</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.1104108657050512</v>
+      </c>
+      <c r="C34">
+        <v>7.100908862694173</v>
+      </c>
+      <c r="D34">
+        <v>15.81490886269417</v>
+      </c>
+      <c r="E34">
+        <v>2.144</v>
+      </c>
+      <c r="F34">
+        <v>12.544</v>
+      </c>
+      <c r="G34">
+        <v>3.83</v>
+      </c>
+      <c r="H34">
+        <v>28.8</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K34">
+        <v>0.867</v>
+      </c>
+      <c r="L34">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M34">
+        <v>2.3043328</v>
+      </c>
+      <c r="N34">
+        <v>-2.4853328</v>
+      </c>
+      <c r="O34">
+        <v>-0.5467732160000001</v>
+      </c>
+      <c r="P34">
+        <v>-1.938559584</v>
+      </c>
+      <c r="Q34">
+        <v>-1.071559584</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.07442801379194196</v>
+      </c>
+      <c r="T34">
+        <v>1.379830800676736</v>
+      </c>
+      <c r="U34">
+        <v>0.1837</v>
+      </c>
+      <c r="V34">
+        <v>-0.0172804900403275</v>
+      </c>
+      <c r="W34">
+        <v>0.1868744260204082</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>-0.07854768200148876</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.1121548657050511</v>
+      </c>
+      <c r="C35">
+        <v>6.440752360155622</v>
+      </c>
+      <c r="D35">
+        <v>15.54675236015562</v>
+      </c>
+      <c r="E35">
+        <v>2.536000000000001</v>
+      </c>
+      <c r="F35">
+        <v>12.936</v>
+      </c>
+      <c r="G35">
+        <v>3.83</v>
+      </c>
+      <c r="H35">
+        <v>28.8</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K35">
+        <v>0.867</v>
+      </c>
+      <c r="L35">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M35">
+        <v>2.3763432</v>
+      </c>
+      <c r="N35">
+        <v>-2.5573432</v>
+      </c>
+      <c r="O35">
+        <v>-0.5626155040000002</v>
+      </c>
+      <c r="P35">
+        <v>-1.994727696</v>
+      </c>
+      <c r="Q35">
+        <v>-1.127727696</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.07540007369928438</v>
+      </c>
+      <c r="T35">
+        <v>1.400425290239076</v>
+      </c>
+      <c r="U35">
+        <v>0.1837</v>
+      </c>
+      <c r="V35">
+        <v>-0.01675683882698424</v>
+      </c>
+      <c r="W35">
+        <v>0.186778231292517</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>-0.07616744921356489</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.1138988657050511</v>
+      </c>
+      <c r="C36">
+        <v>5.789537922854111</v>
+      </c>
+      <c r="D36">
+        <v>15.28753792285411</v>
+      </c>
+      <c r="E36">
+        <v>2.928000000000001</v>
+      </c>
+      <c r="F36">
+        <v>13.328</v>
+      </c>
+      <c r="G36">
+        <v>3.83</v>
+      </c>
+      <c r="H36">
+        <v>28.8</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K36">
+        <v>0.867</v>
+      </c>
+      <c r="L36">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M36">
+        <v>2.4483536</v>
+      </c>
+      <c r="N36">
+        <v>-2.6293536</v>
+      </c>
+      <c r="O36">
+        <v>-0.5784577920000001</v>
+      </c>
+      <c r="P36">
+        <v>-2.050895808</v>
+      </c>
+      <c r="Q36">
+        <v>-1.183895808</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.07640158996745537</v>
+      </c>
+      <c r="T36">
+        <v>1.421643855242698</v>
+      </c>
+      <c r="U36">
+        <v>0.1837</v>
+      </c>
+      <c r="V36">
+        <v>-0.01626399062619059</v>
+      </c>
+      <c r="W36">
+        <v>0.1866876950780312</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>-0.07392723011904812</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.1156428657050512</v>
+      </c>
+      <c r="C37">
+        <v>5.146825606981363</v>
+      </c>
+      <c r="D37">
+        <v>15.03682560698137</v>
+      </c>
+      <c r="E37">
+        <v>3.320000000000002</v>
+      </c>
+      <c r="F37">
+        <v>13.72</v>
+      </c>
+      <c r="G37">
+        <v>3.83</v>
+      </c>
+      <c r="H37">
+        <v>28.8</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K37">
+        <v>0.867</v>
+      </c>
+      <c r="L37">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M37">
+        <v>2.520364</v>
+      </c>
+      <c r="N37">
+        <v>-2.701364</v>
+      </c>
+      <c r="O37">
+        <v>-0.5943000800000001</v>
+      </c>
+      <c r="P37">
+        <v>-2.10706392</v>
+      </c>
+      <c r="Q37">
+        <v>-1.24006392</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.07743392212080083</v>
+      </c>
+      <c r="T37">
+        <v>1.443515299169509</v>
+      </c>
+      <c r="U37">
+        <v>0.1837</v>
+      </c>
+      <c r="V37">
+        <v>-0.015799305179728</v>
+      </c>
+      <c r="W37">
+        <v>0.186602332361516</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>-0.07181502354421831</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.1173868657050512</v>
+      </c>
+      <c r="C38">
+        <v>4.512203863002442</v>
+      </c>
+      <c r="D38">
+        <v>14.79420386300244</v>
+      </c>
+      <c r="E38">
+        <v>3.712</v>
+      </c>
+      <c r="F38">
+        <v>14.112</v>
+      </c>
+      <c r="G38">
+        <v>3.83</v>
+      </c>
+      <c r="H38">
+        <v>28.8</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K38">
+        <v>0.867</v>
+      </c>
+      <c r="L38">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M38">
+        <v>2.5923744</v>
+      </c>
+      <c r="N38">
+        <v>-2.7733744</v>
+      </c>
+      <c r="O38">
+        <v>-0.6101423680000001</v>
+      </c>
+      <c r="P38">
+        <v>-2.163232032</v>
+      </c>
+      <c r="Q38">
+        <v>-1.296232032</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.07849851465393834</v>
+      </c>
+      <c r="T38">
+        <v>1.466070225719033</v>
+      </c>
+      <c r="U38">
+        <v>0.1837</v>
+      </c>
+      <c r="V38">
+        <v>-0.01536043559140222</v>
+      </c>
+      <c r="W38">
+        <v>0.1865217120181406</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>-0.069820161779101</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.1191308657050511</v>
+      </c>
+      <c r="C39">
+        <v>3.885287281297948</v>
+      </c>
+      <c r="D39">
+        <v>14.55928728129795</v>
+      </c>
+      <c r="E39">
+        <v>4.104000000000001</v>
+      </c>
+      <c r="F39">
+        <v>14.504</v>
+      </c>
+      <c r="G39">
+        <v>3.83</v>
+      </c>
+      <c r="H39">
+        <v>28.8</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K39">
+        <v>0.867</v>
+      </c>
+      <c r="L39">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M39">
+        <v>2.6643848</v>
+      </c>
+      <c r="N39">
+        <v>-2.8453848</v>
+      </c>
+      <c r="O39">
+        <v>-0.6259846560000001</v>
+      </c>
+      <c r="P39">
+        <v>-2.219400144</v>
+      </c>
+      <c r="Q39">
+        <v>-1.352400144</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.07959690377542943</v>
+      </c>
+      <c r="T39">
+        <v>1.489341181682827</v>
+      </c>
+      <c r="U39">
+        <v>0.1837</v>
+      </c>
+      <c r="V39">
+        <v>-0.01494528868352649</v>
+      </c>
+      <c r="W39">
+        <v>0.1864454495311638</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>-0.06793313037966597</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.1208748657050511</v>
+      </c>
+      <c r="C40">
+        <v>3.265714549230264</v>
+      </c>
+      <c r="D40">
+        <v>14.33171454923026</v>
+      </c>
+      <c r="E40">
+        <v>4.496</v>
+      </c>
+      <c r="F40">
+        <v>14.896</v>
+      </c>
+      <c r="G40">
+        <v>3.83</v>
+      </c>
+      <c r="H40">
+        <v>28.8</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K40">
+        <v>0.867</v>
+      </c>
+      <c r="L40">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M40">
+        <v>2.7363952</v>
+      </c>
+      <c r="N40">
+        <v>-2.9173952</v>
+      </c>
+      <c r="O40">
+        <v>-0.6418269440000001</v>
+      </c>
+      <c r="P40">
+        <v>-2.275568256</v>
+      </c>
+      <c r="Q40">
+        <v>-1.408568256</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.08073072480406537</v>
+      </c>
+      <c r="T40">
+        <v>1.513362813645453</v>
+      </c>
+      <c r="U40">
+        <v>0.1837</v>
+      </c>
+      <c r="V40">
+        <v>-0.01455199161290737</v>
+      </c>
+      <c r="W40">
+        <v>0.1863732008592911</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>-0.06614541642230631</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.1226188657050511</v>
+      </c>
+      <c r="C41">
+        <v>2.653146596856699</v>
+      </c>
+      <c r="D41">
+        <v>14.1111465968567</v>
+      </c>
+      <c r="E41">
+        <v>4.888000000000002</v>
+      </c>
+      <c r="F41">
+        <v>15.288</v>
+      </c>
+      <c r="G41">
+        <v>3.83</v>
+      </c>
+      <c r="H41">
+        <v>28.8</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K41">
+        <v>0.867</v>
+      </c>
+      <c r="L41">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M41">
+        <v>2.8084056</v>
+      </c>
+      <c r="N41">
+        <v>-2.9894056</v>
+      </c>
+      <c r="O41">
+        <v>-0.657669232</v>
+      </c>
+      <c r="P41">
+        <v>-2.331736368000001</v>
+      </c>
+      <c r="Q41">
+        <v>-1.464736368000001</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.08190172029265662</v>
+      </c>
+      <c r="T41">
+        <v>1.538172040098657</v>
+      </c>
+      <c r="U41">
+        <v>0.1837</v>
+      </c>
+      <c r="V41">
+        <v>-0.01417886362283282</v>
+      </c>
+      <c r="W41">
+        <v>0.1863046572475144</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>-0.06444938010378554</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.1243628657050511</v>
+      </c>
+      <c r="C42">
+        <v>2.047264911274473</v>
+      </c>
+      <c r="D42">
+        <v>13.89726491127447</v>
+      </c>
+      <c r="E42">
+        <v>5.280000000000001</v>
+      </c>
+      <c r="F42">
+        <v>15.68</v>
+      </c>
+      <c r="G42">
+        <v>3.83</v>
+      </c>
+      <c r="H42">
+        <v>28.8</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K42">
+        <v>0.867</v>
+      </c>
+      <c r="L42">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M42">
+        <v>2.880416</v>
+      </c>
+      <c r="N42">
+        <v>-3.061416</v>
+      </c>
+      <c r="O42">
+        <v>-0.67351152</v>
+      </c>
+      <c r="P42">
+        <v>-2.38790448</v>
+      </c>
+      <c r="Q42">
+        <v>-1.52090448</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.0831117489642009</v>
+      </c>
+      <c r="T42">
+        <v>1.563808240766968</v>
+      </c>
+      <c r="U42">
+        <v>0.1837</v>
+      </c>
+      <c r="V42">
+        <v>-0.013824392032262</v>
+      </c>
+      <c r="W42">
+        <v>0.1862395408163265</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>-0.06283814560119105</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.1261068657050512</v>
+      </c>
+      <c r="C43">
+        <v>1.447770001972962</v>
+      </c>
+      <c r="D43">
+        <v>13.68977000197297</v>
+      </c>
+      <c r="E43">
+        <v>5.672000000000002</v>
+      </c>
+      <c r="F43">
+        <v>16.072</v>
+      </c>
+      <c r="G43">
+        <v>3.83</v>
+      </c>
+      <c r="H43">
+        <v>28.8</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K43">
+        <v>0.867</v>
+      </c>
+      <c r="L43">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M43">
+        <v>2.952426400000001</v>
+      </c>
+      <c r="N43">
+        <v>-3.133426400000001</v>
+      </c>
+      <c r="O43">
+        <v>-0.6893538080000001</v>
+      </c>
+      <c r="P43">
+        <v>-2.444072592</v>
+      </c>
+      <c r="Q43">
+        <v>-1.577072592</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.08436279555681447</v>
+      </c>
+      <c r="T43">
+        <v>1.590313465186747</v>
+      </c>
+      <c r="U43">
+        <v>0.1837</v>
+      </c>
+      <c r="V43">
+        <v>-0.01348721173879219</v>
+      </c>
+      <c r="W43">
+        <v>0.1861776007964162</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>-0.0613055079036009</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.1278508657050511</v>
+      </c>
+      <c r="C44">
+        <v>0.8543800016431469</v>
+      </c>
+      <c r="D44">
+        <v>13.48838000164315</v>
+      </c>
+      <c r="E44">
+        <v>6.064000000000002</v>
+      </c>
+      <c r="F44">
+        <v>16.464</v>
+      </c>
+      <c r="G44">
+        <v>3.83</v>
+      </c>
+      <c r="H44">
+        <v>28.8</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K44">
+        <v>0.867</v>
+      </c>
+      <c r="L44">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M44">
+        <v>3.024436800000001</v>
+      </c>
+      <c r="N44">
+        <v>-3.205436800000001</v>
+      </c>
+      <c r="O44">
+        <v>-0.7051960960000001</v>
+      </c>
+      <c r="P44">
+        <v>-2.500240704</v>
+      </c>
+      <c r="Q44">
+        <v>-1.633240704</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.08565698168710437</v>
+      </c>
+      <c r="T44">
+        <v>1.61773266286238</v>
+      </c>
+      <c r="U44">
+        <v>0.1837</v>
+      </c>
+      <c r="V44">
+        <v>-0.01316608764977333</v>
+      </c>
+      <c r="W44">
+        <v>0.1861186103012633</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>-0.05984585295351508</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.1295948657050512</v>
+      </c>
+      <c r="C45">
+        <v>0.2668293886972606</v>
+      </c>
+      <c r="D45">
+        <v>13.29282938869726</v>
+      </c>
+      <c r="E45">
+        <v>6.456000000000001</v>
+      </c>
+      <c r="F45">
+        <v>16.856</v>
+      </c>
+      <c r="G45">
+        <v>3.83</v>
+      </c>
+      <c r="H45">
+        <v>28.8</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K45">
+        <v>0.867</v>
+      </c>
+      <c r="L45">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M45">
+        <v>3.096447200000001</v>
+      </c>
+      <c r="N45">
+        <v>-3.277447200000001</v>
+      </c>
+      <c r="O45">
+        <v>-0.7210383840000001</v>
+      </c>
+      <c r="P45">
+        <v>-2.556408816</v>
+      </c>
+      <c r="Q45">
+        <v>-1.689408816</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.08699657785705357</v>
+      </c>
+      <c r="T45">
+        <v>1.64611393764944</v>
+      </c>
+      <c r="U45">
+        <v>0.1837</v>
+      </c>
+      <c r="V45">
+        <v>-0.01285989956489488</v>
+      </c>
+      <c r="W45">
+        <v>0.1860623635500712</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>-0.05845408893134052</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.1313388657050512</v>
+      </c>
+      <c r="C46">
+        <v>-0.3151321806761977</v>
+      </c>
+      <c r="D46">
+        <v>13.1028678193238</v>
+      </c>
+      <c r="E46">
+        <v>6.848000000000001</v>
+      </c>
+      <c r="F46">
+        <v>17.248</v>
+      </c>
+      <c r="G46">
+        <v>3.83</v>
+      </c>
+      <c r="H46">
+        <v>28.8</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K46">
+        <v>0.867</v>
+      </c>
+      <c r="L46">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M46">
+        <v>3.1684576</v>
+      </c>
+      <c r="N46">
+        <v>-3.3494576</v>
+      </c>
+      <c r="O46">
+        <v>-0.7368806720000001</v>
+      </c>
+      <c r="P46">
+        <v>-2.612576928</v>
+      </c>
+      <c r="Q46">
+        <v>-1.745576928</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.08838401674735809</v>
+      </c>
+      <c r="T46">
+        <v>1.67550882939318</v>
+      </c>
+      <c r="U46">
+        <v>0.1837</v>
+      </c>
+      <c r="V46">
+        <v>-0.01256762912023818</v>
+      </c>
+      <c r="W46">
+        <v>0.1860086734693877</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>-0.05712558691017366</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.1330828657050512</v>
+      </c>
+      <c r="C47">
+        <v>-0.8917409417251676</v>
+      </c>
+      <c r="D47">
+        <v>12.91825905827483</v>
+      </c>
+      <c r="E47">
+        <v>7.24</v>
+      </c>
+      <c r="F47">
+        <v>17.64</v>
+      </c>
+      <c r="G47">
+        <v>3.83</v>
+      </c>
+      <c r="H47">
+        <v>28.8</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K47">
+        <v>0.867</v>
+      </c>
+      <c r="L47">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M47">
+        <v>3.240468</v>
+      </c>
+      <c r="N47">
+        <v>-3.421468</v>
+      </c>
+      <c r="O47">
+        <v>-0.7527229600000001</v>
+      </c>
+      <c r="P47">
+        <v>-2.66874504</v>
+      </c>
+      <c r="Q47">
+        <v>-1.80174504</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.08982190796094643</v>
+      </c>
+      <c r="T47">
+        <v>1.705972626291238</v>
+      </c>
+      <c r="U47">
+        <v>0.1837</v>
+      </c>
+      <c r="V47">
+        <v>-0.01228834847312178</v>
+      </c>
+      <c r="W47">
+        <v>0.1859573696145125</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>-0.05585612942328089</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.1348268657050511</v>
+      </c>
+      <c r="C48">
+        <v>-1.463220001216456</v>
+      </c>
+      <c r="D48">
+        <v>12.73877999878355</v>
+      </c>
+      <c r="E48">
+        <v>7.632000000000003</v>
+      </c>
+      <c r="F48">
+        <v>18.032</v>
+      </c>
+      <c r="G48">
+        <v>3.83</v>
+      </c>
+      <c r="H48">
+        <v>28.8</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K48">
+        <v>0.867</v>
+      </c>
+      <c r="L48">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M48">
+        <v>3.312478400000001</v>
+      </c>
+      <c r="N48">
+        <v>-3.493478400000001</v>
+      </c>
+      <c r="O48">
+        <v>-0.7685652480000001</v>
+      </c>
+      <c r="P48">
+        <v>-2.724913152000001</v>
+      </c>
+      <c r="Q48">
+        <v>-1.857913152000001</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.09131305440466765</v>
+      </c>
+      <c r="T48">
+        <v>1.737564711963298</v>
+      </c>
+      <c r="U48">
+        <v>0.1837</v>
+      </c>
+      <c r="V48">
+        <v>-0.01202121046283652</v>
+      </c>
+      <c r="W48">
+        <v>0.1859082963620231</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>-0.05464186574016594</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.1365708657050511</v>
+      </c>
+      <c r="C49">
+        <v>-2.029780236937366</v>
+      </c>
+      <c r="D49">
+        <v>12.56421976306263</v>
+      </c>
+      <c r="E49">
+        <v>8.024000000000003</v>
+      </c>
+      <c r="F49">
+        <v>18.424</v>
+      </c>
+      <c r="G49">
+        <v>3.83</v>
+      </c>
+      <c r="H49">
+        <v>28.8</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K49">
+        <v>0.867</v>
+      </c>
+      <c r="L49">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M49">
+        <v>3.384488800000001</v>
+      </c>
+      <c r="N49">
+        <v>-3.565488800000001</v>
+      </c>
+      <c r="O49">
+        <v>-0.7844075360000001</v>
+      </c>
+      <c r="P49">
+        <v>-2.781081264</v>
+      </c>
+      <c r="Q49">
+        <v>-1.914081264</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.09286047052551044</v>
+      </c>
+      <c r="T49">
+        <v>1.770348951811662</v>
+      </c>
+      <c r="U49">
+        <v>0.1837</v>
+      </c>
+      <c r="V49">
+        <v>-0.01176544002745702</v>
+      </c>
+      <c r="W49">
+        <v>0.1858613113330438</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>-0.05347927285207743</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.1383148657050511</v>
+      </c>
+      <c r="C50">
+        <v>-2.591621124241588</v>
+      </c>
+      <c r="D50">
+        <v>12.39437887575841</v>
+      </c>
+      <c r="E50">
+        <v>8.415999999999999</v>
+      </c>
+      <c r="F50">
+        <v>18.816</v>
+      </c>
+      <c r="G50">
+        <v>3.83</v>
+      </c>
+      <c r="H50">
+        <v>28.8</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K50">
+        <v>0.867</v>
+      </c>
+      <c r="L50">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M50">
+        <v>3.4564992</v>
+      </c>
+      <c r="N50">
+        <v>-3.6374992</v>
+      </c>
+      <c r="O50">
+        <v>-0.8002498239999999</v>
+      </c>
+      <c r="P50">
+        <v>-2.837249376</v>
+      </c>
+      <c r="Q50">
+        <v>-1.970249376</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.09446740265100102</v>
+      </c>
+      <c r="T50">
+        <v>1.804394123961886</v>
+      </c>
+      <c r="U50">
+        <v>0.1837</v>
+      </c>
+      <c r="V50">
+        <v>-0.01152032669355167</v>
+      </c>
+      <c r="W50">
+        <v>0.1858162840136054</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>-0.05236512133432569</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.1400588657050512</v>
+      </c>
+      <c r="C51">
+        <v>-3.148931496450547</v>
+      </c>
+      <c r="D51">
+        <v>12.22906850354945</v>
+      </c>
+      <c r="E51">
+        <v>8.808000000000002</v>
+      </c>
+      <c r="F51">
+        <v>19.208</v>
+      </c>
+      <c r="G51">
+        <v>3.83</v>
+      </c>
+      <c r="H51">
+        <v>28.8</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K51">
+        <v>0.867</v>
+      </c>
+      <c r="L51">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M51">
+        <v>3.5285096</v>
+      </c>
+      <c r="N51">
+        <v>-3.709509600000001</v>
+      </c>
+      <c r="O51">
+        <v>-0.8160921120000001</v>
+      </c>
+      <c r="P51">
+        <v>-2.893417488</v>
+      </c>
+      <c r="Q51">
+        <v>-2.026417488</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.09613735172258928</v>
+      </c>
+      <c r="T51">
+        <v>1.839774400902315</v>
+      </c>
+      <c r="U51">
+        <v>0.1837</v>
+      </c>
+      <c r="V51">
+        <v>-0.01128521798552</v>
+      </c>
+      <c r="W51">
+        <v>0.18577309454394</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>-0.05129644538872724</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.1418028657050512</v>
+      </c>
+      <c r="C52">
+        <v>-3.701890245204439</v>
+      </c>
+      <c r="D52">
+        <v>12.06810975479556</v>
+      </c>
+      <c r="E52">
+        <v>9.200000000000001</v>
+      </c>
+      <c r="F52">
+        <v>19.6</v>
+      </c>
+      <c r="G52">
+        <v>3.83</v>
+      </c>
+      <c r="H52">
+        <v>28.8</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K52">
+        <v>0.867</v>
+      </c>
+      <c r="L52">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M52">
+        <v>3.60052</v>
+      </c>
+      <c r="N52">
+        <v>-3.78152</v>
+      </c>
+      <c r="O52">
+        <v>-0.8319344000000001</v>
+      </c>
+      <c r="P52">
+        <v>-2.9495856</v>
+      </c>
+      <c r="Q52">
+        <v>-2.0825856</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.09787409875704108</v>
+      </c>
+      <c r="T52">
+        <v>1.876569888920362</v>
+      </c>
+      <c r="U52">
+        <v>0.1837</v>
+      </c>
+      <c r="V52">
+        <v>-0.0110595136258096</v>
+      </c>
+      <c r="W52">
+        <v>0.1857316326530612</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>-0.05027051648095271</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.1435468657050511</v>
+      </c>
+      <c r="C53">
+        <v>-4.250666966223791</v>
+      </c>
+      <c r="D53">
+        <v>11.91133303377621</v>
+      </c>
+      <c r="E53">
+        <v>9.592000000000001</v>
+      </c>
+      <c r="F53">
+        <v>19.992</v>
+      </c>
+      <c r="G53">
+        <v>3.83</v>
+      </c>
+      <c r="H53">
+        <v>28.8</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K53">
+        <v>0.867</v>
+      </c>
+      <c r="L53">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M53">
+        <v>3.6725304</v>
+      </c>
+      <c r="N53">
+        <v>-3.8535304</v>
+      </c>
+      <c r="O53">
+        <v>-0.8477766880000001</v>
+      </c>
+      <c r="P53">
+        <v>-3.005753712</v>
+      </c>
+      <c r="Q53">
+        <v>-2.138753712</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.0996817334255521</v>
+      </c>
+      <c r="T53">
+        <v>1.914867233592206</v>
+      </c>
+      <c r="U53">
+        <v>0.1837</v>
+      </c>
+      <c r="V53">
+        <v>-0.01084266041746039</v>
+      </c>
+      <c r="W53">
+        <v>0.1856917967186875</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>-0.04928482007936541</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.1452908657050512</v>
+      </c>
+      <c r="C54">
+        <v>-4.795422555381977</v>
+      </c>
+      <c r="D54">
+        <v>11.75857744461803</v>
+      </c>
+      <c r="E54">
+        <v>9.984000000000004</v>
+      </c>
+      <c r="F54">
+        <v>20.384</v>
+      </c>
+      <c r="G54">
+        <v>3.83</v>
+      </c>
+      <c r="H54">
+        <v>28.8</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K54">
+        <v>0.867</v>
+      </c>
+      <c r="L54">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M54">
+        <v>3.744540800000001</v>
+      </c>
+      <c r="N54">
+        <v>-3.925540800000001</v>
+      </c>
+      <c r="O54">
+        <v>-0.8636189760000001</v>
+      </c>
+      <c r="P54">
+        <v>-3.061921824000001</v>
+      </c>
+      <c r="Q54">
+        <v>-2.194921824000001</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1015646862052511</v>
+      </c>
+      <c r="T54">
+        <v>1.95476030095871</v>
+      </c>
+      <c r="U54">
+        <v>0.1837</v>
+      </c>
+      <c r="V54">
+        <v>-0.01063414771712461</v>
+      </c>
+      <c r="W54">
+        <v>0.1856534929356358</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>-0.04833703507783915</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1470348657050512</v>
+      </c>
+      <c r="C55">
+        <v>-5.336309759492863</v>
+      </c>
+      <c r="D55">
+        <v>11.60969024050714</v>
+      </c>
+      <c r="E55">
+        <v>10.376</v>
+      </c>
+      <c r="F55">
+        <v>20.776</v>
+      </c>
+      <c r="G55">
+        <v>3.83</v>
+      </c>
+      <c r="H55">
+        <v>28.8</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K55">
+        <v>0.867</v>
+      </c>
+      <c r="L55">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M55">
+        <v>3.816551200000001</v>
+      </c>
+      <c r="N55">
+        <v>-3.997551200000001</v>
+      </c>
+      <c r="O55">
+        <v>-0.8794612640000001</v>
+      </c>
+      <c r="P55">
+        <v>-3.118089936000001</v>
+      </c>
+      <c r="Q55">
+        <v>-2.251089936000001</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1035277646351501</v>
+      </c>
+      <c r="T55">
+        <v>1.99635094565996</v>
+      </c>
+      <c r="U55">
+        <v>0.1837</v>
+      </c>
+      <c r="V55">
+        <v>-0.01043350342057509</v>
+      </c>
+      <c r="W55">
+        <v>0.1856166345783597</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>-0.04742501554806866</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1487788657050512</v>
+      </c>
+      <c r="C56">
+        <v>-5.873473685777297</v>
+      </c>
+      <c r="D56">
+        <v>11.46452631422271</v>
+      </c>
+      <c r="E56">
+        <v>10.768</v>
+      </c>
+      <c r="F56">
+        <v>21.168</v>
+      </c>
+      <c r="G56">
+        <v>3.83</v>
+      </c>
+      <c r="H56">
+        <v>28.8</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K56">
+        <v>0.867</v>
+      </c>
+      <c r="L56">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M56">
+        <v>3.888561600000001</v>
+      </c>
+      <c r="N56">
+        <v>-4.0695616</v>
+      </c>
+      <c r="O56">
+        <v>-0.895303552</v>
+      </c>
+      <c r="P56">
+        <v>-3.174258048</v>
+      </c>
+      <c r="Q56">
+        <v>-2.307258048</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1055761943011316</v>
+      </c>
+      <c r="T56">
+        <v>2.039749879261262</v>
+      </c>
+      <c r="U56">
+        <v>0.1837</v>
+      </c>
+      <c r="V56">
+        <v>-0.01024029039426815</v>
+      </c>
+      <c r="W56">
+        <v>0.1855811413454271</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>-0.04654677451940059</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1505228657050512</v>
+      </c>
+      <c r="C57">
+        <v>-6.407052273580227</v>
+      </c>
+      <c r="D57">
+        <v>11.32294772641978</v>
+      </c>
+      <c r="E57">
+        <v>11.16</v>
+      </c>
+      <c r="F57">
+        <v>21.56</v>
+      </c>
+      <c r="G57">
+        <v>3.83</v>
+      </c>
+      <c r="H57">
+        <v>28.8</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K57">
+        <v>0.867</v>
+      </c>
+      <c r="L57">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M57">
+        <v>3.960572</v>
+      </c>
+      <c r="N57">
+        <v>-4.141572</v>
+      </c>
+      <c r="O57">
+        <v>-0.91114584</v>
+      </c>
+      <c r="P57">
+        <v>-3.23042616</v>
+      </c>
+      <c r="Q57">
+        <v>-2.36342616</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1077156652856012</v>
+      </c>
+      <c r="T57">
+        <v>2.085077654355958</v>
+      </c>
+      <c r="U57">
+        <v>0.1837</v>
+      </c>
+      <c r="V57">
+        <v>-0.01005410329619055</v>
+      </c>
+      <c r="W57">
+        <v>0.1855469387755102</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>-0.04570046952813867</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1522668657050512</v>
+      </c>
+      <c r="C58">
+        <v>-6.937176731562094</v>
+      </c>
+      <c r="D58">
+        <v>11.18482326843791</v>
+      </c>
+      <c r="E58">
+        <v>11.552</v>
+      </c>
+      <c r="F58">
+        <v>21.95200000000001</v>
+      </c>
+      <c r="G58">
+        <v>3.83</v>
+      </c>
+      <c r="H58">
+        <v>28.8</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K58">
+        <v>0.867</v>
+      </c>
+      <c r="L58">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M58">
+        <v>4.032582400000001</v>
+      </c>
+      <c r="N58">
+        <v>-4.213582400000001</v>
+      </c>
+      <c r="O58">
+        <v>-0.9269881280000002</v>
+      </c>
+      <c r="P58">
+        <v>-3.286594272000001</v>
+      </c>
+      <c r="Q58">
+        <v>-2.419594272000001</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.109952384951183</v>
+      </c>
+      <c r="T58">
+        <v>2.132465782864047</v>
+      </c>
+      <c r="U58">
+        <v>0.1837</v>
+      </c>
+      <c r="V58">
+        <v>-0.009874565737329999</v>
+      </c>
+      <c r="W58">
+        <v>0.1855139577259475</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>-0.04488438971513631</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.1540108657050512</v>
+      </c>
+      <c r="C59">
+        <v>-7.463971943276974</v>
+      </c>
+      <c r="D59">
+        <v>11.05002805672303</v>
+      </c>
+      <c r="E59">
+        <v>11.944</v>
+      </c>
+      <c r="F59">
+        <v>22.344</v>
+      </c>
+      <c r="G59">
+        <v>3.83</v>
+      </c>
+      <c r="H59">
+        <v>28.8</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K59">
+        <v>0.867</v>
+      </c>
+      <c r="L59">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M59">
+        <v>4.104592800000001</v>
+      </c>
+      <c r="N59">
+        <v>-4.285592800000001</v>
+      </c>
+      <c r="O59">
+        <v>-0.9428304160000002</v>
+      </c>
+      <c r="P59">
+        <v>-3.342762384000001</v>
+      </c>
+      <c r="Q59">
+        <v>-2.475762384000001</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1122931380895826</v>
+      </c>
+      <c r="T59">
+        <v>2.182058010372514</v>
+      </c>
+      <c r="U59">
+        <v>0.1837</v>
+      </c>
+      <c r="V59">
+        <v>-0.009701327741938246</v>
+      </c>
+      <c r="W59">
+        <v>0.1854821339061941</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>-0.04409694428153754</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.1557548657050511</v>
+      </c>
+      <c r="C60">
+        <v>-7.987556843772767</v>
+      </c>
+      <c r="D60">
+        <v>10.91844315622723</v>
+      </c>
+      <c r="E60">
+        <v>12.336</v>
+      </c>
+      <c r="F60">
+        <v>22.736</v>
+      </c>
+      <c r="G60">
+        <v>3.83</v>
+      </c>
+      <c r="H60">
+        <v>28.8</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K60">
+        <v>0.867</v>
+      </c>
+      <c r="L60">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M60">
+        <v>4.1766032</v>
+      </c>
+      <c r="N60">
+        <v>-4.3576032</v>
+      </c>
+      <c r="O60">
+        <v>-0.9586727039999999</v>
+      </c>
+      <c r="P60">
+        <v>-3.398930496</v>
+      </c>
+      <c r="Q60">
+        <v>-2.531930496</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1147453556631441</v>
+      </c>
+      <c r="T60">
+        <v>2.23401177252424</v>
+      </c>
+      <c r="U60">
+        <v>0.1837</v>
+      </c>
+      <c r="V60">
+        <v>-0.009534063470525518</v>
+      </c>
+      <c r="W60">
+        <v>0.1854514074595355</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>-0.04333665213875237</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.1574988657050511</v>
+      </c>
+      <c r="C61">
+        <v>-8.508044769600469</v>
+      </c>
+      <c r="D61">
+        <v>10.78995523039953</v>
+      </c>
+      <c r="E61">
+        <v>12.728</v>
+      </c>
+      <c r="F61">
+        <v>23.128</v>
+      </c>
+      <c r="G61">
+        <v>3.83</v>
+      </c>
+      <c r="H61">
+        <v>28.8</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K61">
+        <v>0.867</v>
+      </c>
+      <c r="L61">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M61">
+        <v>4.2486136</v>
+      </c>
+      <c r="N61">
+        <v>-4.4296136</v>
+      </c>
+      <c r="O61">
+        <v>-0.9745149919999999</v>
+      </c>
+      <c r="P61">
+        <v>-3.455098608</v>
+      </c>
+      <c r="Q61">
+        <v>-2.588098608</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1173171936061476</v>
+      </c>
+      <c r="T61">
+        <v>2.288499864537026</v>
+      </c>
+      <c r="U61">
+        <v>0.1837</v>
+      </c>
+      <c r="V61">
+        <v>-0.009372469174414916</v>
+      </c>
+      <c r="W61">
+        <v>0.18542172258734</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>-0.04260213261097689</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.1592428657050512</v>
+      </c>
+      <c r="C62">
+        <v>-9.025543784397433</v>
+      </c>
+      <c r="D62">
+        <v>10.66445621560257</v>
+      </c>
+      <c r="E62">
+        <v>13.12</v>
+      </c>
+      <c r="F62">
+        <v>23.52</v>
+      </c>
+      <c r="G62">
+        <v>3.83</v>
+      </c>
+      <c r="H62">
+        <v>28.8</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K62">
+        <v>0.867</v>
+      </c>
+      <c r="L62">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M62">
+        <v>4.320624</v>
+      </c>
+      <c r="N62">
+        <v>-4.501624</v>
+      </c>
+      <c r="O62">
+        <v>-0.9903572799999999</v>
+      </c>
+      <c r="P62">
+        <v>-3.51126672</v>
+      </c>
+      <c r="Q62">
+        <v>-2.64426672</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1200176234463013</v>
+      </c>
+      <c r="T62">
+        <v>2.345712361150452</v>
+      </c>
+      <c r="U62">
+        <v>0.1837</v>
+      </c>
+      <c r="V62">
+        <v>-0.009216261354841335</v>
+      </c>
+      <c r="W62">
+        <v>0.1853930272108844</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>-0.04189209706746055</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.1609868657050511</v>
+      </c>
+      <c r="C63">
+        <v>-9.54015698201057</v>
+      </c>
+      <c r="D63">
+        <v>10.54184301798943</v>
+      </c>
+      <c r="E63">
+        <v>13.512</v>
+      </c>
+      <c r="F63">
+        <v>23.912</v>
+      </c>
+      <c r="G63">
+        <v>3.83</v>
+      </c>
+      <c r="H63">
+        <v>28.8</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K63">
+        <v>0.867</v>
+      </c>
+      <c r="L63">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M63">
+        <v>4.3926344</v>
+      </c>
+      <c r="N63">
+        <v>-4.5736344</v>
+      </c>
+      <c r="O63">
+        <v>-1.006199568</v>
+      </c>
+      <c r="P63">
+        <v>-3.567434832</v>
+      </c>
+      <c r="Q63">
+        <v>-2.700434832</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1228565368680014</v>
+      </c>
+      <c r="T63">
+        <v>2.405858831949181</v>
+      </c>
+      <c r="U63">
+        <v>0.1837</v>
+      </c>
+      <c r="V63">
+        <v>-0.009065175103122623</v>
+      </c>
+      <c r="W63">
+        <v>0.1853652726664436</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>-0.04120534137783016</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.1627308657050512</v>
+      </c>
+      <c r="C64">
+        <v>-10.05198276894653</v>
+      </c>
+      <c r="D64">
+        <v>10.42201723105347</v>
+      </c>
+      <c r="E64">
+        <v>13.904</v>
+      </c>
+      <c r="F64">
+        <v>24.304</v>
+      </c>
+      <c r="G64">
+        <v>3.83</v>
+      </c>
+      <c r="H64">
+        <v>28.8</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K64">
+        <v>0.867</v>
+      </c>
+      <c r="L64">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M64">
+        <v>4.4646448</v>
+      </c>
+      <c r="N64">
+        <v>-4.6456448</v>
+      </c>
+      <c r="O64">
+        <v>-1.022041856</v>
+      </c>
+      <c r="P64">
+        <v>-3.623602944</v>
+      </c>
+      <c r="Q64">
+        <v>-2.756602944</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1258448667855804</v>
+      </c>
+      <c r="T64">
+        <v>2.46917090647416</v>
+      </c>
+      <c r="U64">
+        <v>0.1837</v>
+      </c>
+      <c r="V64">
+        <v>-0.008918962601459355</v>
+      </c>
+      <c r="W64">
+        <v>0.1853384134298881</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>-0.04054073909754252</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.1644748657050511</v>
+      </c>
+      <c r="C65">
+        <v>-10.56111512777521</v>
+      </c>
+      <c r="D65">
+        <v>10.30488487222479</v>
+      </c>
+      <c r="E65">
+        <v>14.296</v>
+      </c>
+      <c r="F65">
+        <v>24.696</v>
+      </c>
+      <c r="G65">
+        <v>3.83</v>
+      </c>
+      <c r="H65">
+        <v>28.8</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K65">
+        <v>0.867</v>
+      </c>
+      <c r="L65">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M65">
+        <v>4.5366552</v>
+      </c>
+      <c r="N65">
+        <v>-4.7176552</v>
+      </c>
+      <c r="O65">
+        <v>-1.037884144</v>
+      </c>
+      <c r="P65">
+        <v>-3.679771056</v>
+      </c>
+      <c r="Q65">
+        <v>-2.812771056</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1289947280500555</v>
+      </c>
+      <c r="T65">
+        <v>2.535905255297786</v>
+      </c>
+      <c r="U65">
+        <v>0.1837</v>
+      </c>
+      <c r="V65">
+        <v>-0.008777391766515557</v>
+      </c>
+      <c r="W65">
+        <v>0.1853124068675089</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>-0.03989723530234346</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.1662188657050511</v>
+      </c>
+      <c r="C66">
+        <v>-11.06764386296847</v>
+      </c>
+      <c r="D66">
+        <v>10.19035613703153</v>
+      </c>
+      <c r="E66">
+        <v>14.688</v>
+      </c>
+      <c r="F66">
+        <v>25.088</v>
+      </c>
+      <c r="G66">
+        <v>3.83</v>
+      </c>
+      <c r="H66">
+        <v>28.8</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K66">
+        <v>0.867</v>
+      </c>
+      <c r="L66">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M66">
+        <v>4.6086656</v>
+      </c>
+      <c r="N66">
+        <v>-4.7896656</v>
+      </c>
+      <c r="O66">
+        <v>-1.053726432</v>
+      </c>
+      <c r="P66">
+        <v>-3.735939168</v>
+      </c>
+      <c r="Q66">
+        <v>-2.868939168</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1323195816070015</v>
+      </c>
+      <c r="T66">
+        <v>2.606347067944947</v>
+      </c>
+      <c r="U66">
+        <v>0.1837</v>
+      </c>
+      <c r="V66">
+        <v>-0.008640245020163752</v>
+      </c>
+      <c r="W66">
+        <v>0.1852872130102041</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>-0.03927384100074427</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.1679628657050511</v>
+      </c>
+      <c r="C67">
+        <v>-11.57165483052544</v>
+      </c>
+      <c r="D67">
+        <v>10.07834516947457</v>
+      </c>
+      <c r="E67">
+        <v>15.08</v>
+      </c>
+      <c r="F67">
+        <v>25.48</v>
+      </c>
+      <c r="G67">
+        <v>3.83</v>
+      </c>
+      <c r="H67">
+        <v>28.8</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K67">
+        <v>0.867</v>
+      </c>
+      <c r="L67">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M67">
+        <v>4.680676000000001</v>
+      </c>
+      <c r="N67">
+        <v>-4.861676000000001</v>
+      </c>
+      <c r="O67">
+        <v>-1.06956872</v>
+      </c>
+      <c r="P67">
+        <v>-3.792107280000001</v>
+      </c>
+      <c r="Q67">
+        <v>-2.925107280000001</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.135834426795773</v>
+      </c>
+      <c r="T67">
+        <v>2.680814127029088</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>-0.008507318173699692</v>
+      </c>
+      <c r="W67">
+        <v>0.1852627943485086</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>-0.03866962806227137</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
         <v>0.66</v>
       </c>
-      <c r="AM3">
-        <v>0.4340000000000001</v>
-      </c>
-      <c r="AN3">
-        <v>-6.463414634146342</v>
-      </c>
-      <c r="AO3">
-        <v>-0.01515151515151515</v>
-      </c>
-      <c r="AP3">
-        <v>-4.182926829268292</v>
-      </c>
-      <c r="AQ3">
-        <v>-0.02304147465437788</v>
+      <c r="B68">
+        <v>0.1697068657050511</v>
+      </c>
+      <c r="C68">
+        <v>-12.07323015261846</v>
+      </c>
+      <c r="D68">
+        <v>9.968769847381543</v>
+      </c>
+      <c r="E68">
+        <v>15.472</v>
+      </c>
+      <c r="F68">
+        <v>25.872</v>
+      </c>
+      <c r="G68">
+        <v>3.83</v>
+      </c>
+      <c r="H68">
+        <v>28.8</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K68">
+        <v>0.867</v>
+      </c>
+      <c r="L68">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M68">
+        <v>4.752686400000001</v>
+      </c>
+      <c r="N68">
+        <v>-4.933686400000001</v>
+      </c>
+      <c r="O68">
+        <v>-1.085411008</v>
+      </c>
+      <c r="P68">
+        <v>-3.848275392000001</v>
+      </c>
+      <c r="Q68">
+        <v>-2.981275392000001</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1395560275838839</v>
+      </c>
+      <c r="T68">
+        <v>2.759661601353473</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>-0.008378419413492121</v>
+      </c>
+      <c r="W68">
+        <v>0.1852391156462585</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>-0.03808372460678244</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.1714508657050512</v>
+      </c>
+      <c r="C69">
+        <v>-12.57244841838744</v>
+      </c>
+      <c r="D69">
+        <v>9.861551581612567</v>
+      </c>
+      <c r="E69">
+        <v>15.864</v>
+      </c>
+      <c r="F69">
+        <v>26.264</v>
+      </c>
+      <c r="G69">
+        <v>3.83</v>
+      </c>
+      <c r="H69">
+        <v>28.8</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K69">
+        <v>0.867</v>
+      </c>
+      <c r="L69">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M69">
+        <v>4.824696800000001</v>
+      </c>
+      <c r="N69">
+        <v>-5.005696800000001</v>
+      </c>
+      <c r="O69">
+        <v>-1.101253296</v>
+      </c>
+      <c r="P69">
+        <v>-3.904443504000001</v>
+      </c>
+      <c r="Q69">
+        <v>-3.037443504000001</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1435031799349107</v>
+      </c>
+      <c r="T69">
+        <v>2.843287710485397</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>-0.008253368377469851</v>
+      </c>
+      <c r="W69">
+        <v>0.1852161437709412</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>-0.03751531080668125</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.1731948657050512</v>
+      </c>
+      <c r="C70">
+        <v>-13.06938487191419</v>
+      </c>
+      <c r="D70">
+        <v>9.756615128085809</v>
+      </c>
+      <c r="E70">
+        <v>16.256</v>
+      </c>
+      <c r="F70">
+        <v>26.656</v>
+      </c>
+      <c r="G70">
+        <v>3.83</v>
+      </c>
+      <c r="H70">
+        <v>28.8</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K70">
+        <v>0.867</v>
+      </c>
+      <c r="L70">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M70">
+        <v>4.896707200000001</v>
+      </c>
+      <c r="N70">
+        <v>-5.077707200000001</v>
+      </c>
+      <c r="O70">
+        <v>-1.117095584</v>
+      </c>
+      <c r="P70">
+        <v>-3.960611616</v>
+      </c>
+      <c r="Q70">
+        <v>-3.093611616</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.1476970293078767</v>
+      </c>
+      <c r="T70">
+        <v>2.932140451438066</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>-0.008131995313095294</v>
+      </c>
+      <c r="W70">
+        <v>0.1851938475390156</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>-0.03696361505952406</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.1749388657050512</v>
+      </c>
+      <c r="C71">
+        <v>-13.56411158832193</v>
+      </c>
+      <c r="D71">
+        <v>9.653888411678075</v>
+      </c>
+      <c r="E71">
+        <v>16.648</v>
+      </c>
+      <c r="F71">
+        <v>27.04800000000001</v>
+      </c>
+      <c r="G71">
+        <v>3.83</v>
+      </c>
+      <c r="H71">
+        <v>28.8</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K71">
+        <v>0.867</v>
+      </c>
+      <c r="L71">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M71">
+        <v>4.968717600000001</v>
+      </c>
+      <c r="N71">
+        <v>-5.149717600000001</v>
+      </c>
+      <c r="O71">
+        <v>-1.132937872</v>
+      </c>
+      <c r="P71">
+        <v>-4.016779728</v>
+      </c>
+      <c r="Q71">
+        <v>-3.149779728</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1521614496081308</v>
+      </c>
+      <c r="T71">
+        <v>3.026725627290906</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>-0.008014140308557682</v>
+      </c>
+      <c r="W71">
+        <v>0.185172197574682</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>-0.03642791049344396</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.1766828657050512</v>
+      </c>
+      <c r="C72">
+        <v>-14.05669763886569</v>
+      </c>
+      <c r="D72">
+        <v>9.553302361134319</v>
+      </c>
+      <c r="E72">
+        <v>17.04000000000001</v>
+      </c>
+      <c r="F72">
+        <v>27.44</v>
+      </c>
+      <c r="G72">
+        <v>3.83</v>
+      </c>
+      <c r="H72">
+        <v>28.8</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K72">
+        <v>0.867</v>
+      </c>
+      <c r="L72">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M72">
+        <v>5.040728000000001</v>
+      </c>
+      <c r="N72">
+        <v>-5.221728000000001</v>
+      </c>
+      <c r="O72">
+        <v>-1.14878016</v>
+      </c>
+      <c r="P72">
+        <v>-4.07294784</v>
+      </c>
+      <c r="Q72">
+        <v>-3.20594784</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.1569234979284018</v>
+      </c>
+      <c r="T72">
+        <v>3.127616481533937</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>-0.007899652589864001</v>
+      </c>
+      <c r="W72">
+        <v>0.185151166180758</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>-0.03590751177210905</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.1784268657050512</v>
+      </c>
+      <c r="C73">
+        <v>-14.54720924580857</v>
+      </c>
+      <c r="D73">
+        <v>9.454790754191436</v>
+      </c>
+      <c r="E73">
+        <v>17.432</v>
+      </c>
+      <c r="F73">
+        <v>27.832</v>
+      </c>
+      <c r="G73">
+        <v>3.83</v>
+      </c>
+      <c r="H73">
+        <v>28.8</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K73">
+        <v>0.867</v>
+      </c>
+      <c r="L73">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M73">
+        <v>5.1127384</v>
+      </c>
+      <c r="N73">
+        <v>-5.293738400000001</v>
+      </c>
+      <c r="O73">
+        <v>-1.164622448</v>
+      </c>
+      <c r="P73">
+        <v>-4.129115952</v>
+      </c>
+      <c r="Q73">
+        <v>-3.262115952</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.1620139633742087</v>
+      </c>
+      <c r="T73">
+        <v>3.235465325724761</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>-0.007788389877330704</v>
+      </c>
+      <c r="W73">
+        <v>0.1851307272204657</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>-0.0354017721696851</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.1801708657050512</v>
+      </c>
+      <c r="C74">
+        <v>-15.03570992781349</v>
+      </c>
+      <c r="D74">
+        <v>9.358290072186508</v>
+      </c>
+      <c r="E74">
+        <v>17.824</v>
+      </c>
+      <c r="F74">
+        <v>28.224</v>
+      </c>
+      <c r="G74">
+        <v>3.83</v>
+      </c>
+      <c r="H74">
+        <v>28.8</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K74">
+        <v>0.867</v>
+      </c>
+      <c r="L74">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M74">
+        <v>5.1847488</v>
+      </c>
+      <c r="N74">
+        <v>-5.3657488</v>
+      </c>
+      <c r="O74">
+        <v>-1.180464736</v>
+      </c>
+      <c r="P74">
+        <v>-4.185284064</v>
+      </c>
+      <c r="Q74">
+        <v>-3.318284064</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.1674680334947162</v>
+      </c>
+      <c r="T74">
+        <v>3.35101765878636</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>-0.007680217795701111</v>
+      </c>
+      <c r="W74">
+        <v>0.1851108560090703</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>-0.03491008088955061</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.1819148657050511</v>
+      </c>
+      <c r="C75">
+        <v>-15.52226063652117</v>
+      </c>
+      <c r="D75">
+        <v>9.263739363478829</v>
+      </c>
+      <c r="E75">
+        <v>18.216</v>
+      </c>
+      <c r="F75">
+        <v>28.616</v>
+      </c>
+      <c r="G75">
+        <v>3.83</v>
+      </c>
+      <c r="H75">
+        <v>28.8</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K75">
+        <v>0.867</v>
+      </c>
+      <c r="L75">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M75">
+        <v>5.2567592</v>
+      </c>
+      <c r="N75">
+        <v>-5.4377592</v>
+      </c>
+      <c r="O75">
+        <v>-1.196307024</v>
+      </c>
+      <c r="P75">
+        <v>-4.241452176</v>
+      </c>
+      <c r="Q75">
+        <v>-3.374452176</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.1733261088093353</v>
+      </c>
+      <c r="T75">
+        <v>3.475129423926595</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>-0.007575009332746302</v>
+      </c>
+      <c r="W75">
+        <v>0.1850915292144255</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>-0.03443186060339221</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.1836588657050511</v>
+      </c>
+      <c r="C76">
+        <v>-16.0069198849315</v>
+      </c>
+      <c r="D76">
+        <v>9.171080115068506</v>
+      </c>
+      <c r="E76">
+        <v>18.608</v>
+      </c>
+      <c r="F76">
+        <v>29.008</v>
+      </c>
+      <c r="G76">
+        <v>3.83</v>
+      </c>
+      <c r="H76">
+        <v>28.8</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K76">
+        <v>0.867</v>
+      </c>
+      <c r="L76">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M76">
+        <v>5.3287696</v>
+      </c>
+      <c r="N76">
+        <v>-5.5097696</v>
+      </c>
+      <c r="O76">
+        <v>-1.212149312</v>
+      </c>
+      <c r="P76">
+        <v>-4.297620288</v>
+      </c>
+      <c r="Q76">
+        <v>-3.430620288</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.179634805302002</v>
+      </c>
+      <c r="T76">
+        <v>3.608788247923772</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>-0.007472644341763243</v>
+      </c>
+      <c r="W76">
+        <v>0.1850727247655819</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>-0.03396656518983288</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.1854028657050512</v>
+      </c>
+      <c r="C77">
+        <v>-16.48974386815655</v>
+      </c>
+      <c r="D77">
+        <v>9.08025613184345</v>
+      </c>
+      <c r="E77">
+        <v>19</v>
+      </c>
+      <c r="F77">
+        <v>29.4</v>
+      </c>
+      <c r="G77">
+        <v>3.83</v>
+      </c>
+      <c r="H77">
+        <v>28.8</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K77">
+        <v>0.867</v>
+      </c>
+      <c r="L77">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M77">
+        <v>5.40078</v>
+      </c>
+      <c r="N77">
+        <v>-5.58178</v>
+      </c>
+      <c r="O77">
+        <v>-1.2279916</v>
+      </c>
+      <c r="P77">
+        <v>-4.3537884</v>
+      </c>
+      <c r="Q77">
+        <v>-3.4867884</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.1864481975140821</v>
+      </c>
+      <c r="T77">
+        <v>3.753139777840723</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>-0.007373009083873068</v>
+      </c>
+      <c r="W77">
+        <v>0.1850544217687075</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>-0.0335136776539684</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.1871468657050511</v>
+      </c>
+      <c r="C78">
+        <v>-16.97078657706882</v>
+      </c>
+      <c r="D78">
+        <v>8.991213422931178</v>
+      </c>
+      <c r="E78">
+        <v>19.392</v>
+      </c>
+      <c r="F78">
+        <v>29.792</v>
+      </c>
+      <c r="G78">
+        <v>3.83</v>
+      </c>
+      <c r="H78">
+        <v>28.8</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K78">
+        <v>0.867</v>
+      </c>
+      <c r="L78">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M78">
+        <v>5.4727904</v>
+      </c>
+      <c r="N78">
+        <v>-5.6537904</v>
+      </c>
+      <c r="O78">
+        <v>-1.243833888</v>
+      </c>
+      <c r="P78">
+        <v>-4.409956512</v>
+      </c>
+      <c r="Q78">
+        <v>-3.542956512</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.1938293724105022</v>
+      </c>
+      <c r="T78">
+        <v>3.90952060191742</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>-0.007275995806453685</v>
+      </c>
+      <c r="W78">
+        <v>0.1850366004296455</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>-0.03307270821115305</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.1888908657050511</v>
+      </c>
+      <c r="C79">
+        <v>-17.45009990532765</v>
+      </c>
+      <c r="D79">
+        <v>8.903900094672352</v>
+      </c>
+      <c r="E79">
+        <v>19.78400000000001</v>
+      </c>
+      <c r="F79">
+        <v>30.184</v>
+      </c>
+      <c r="G79">
+        <v>3.83</v>
+      </c>
+      <c r="H79">
+        <v>28.8</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K79">
+        <v>0.867</v>
+      </c>
+      <c r="L79">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M79">
+        <v>5.544800800000001</v>
+      </c>
+      <c r="N79">
+        <v>-5.725800800000001</v>
+      </c>
+      <c r="O79">
+        <v>-1.259676176</v>
+      </c>
+      <c r="P79">
+        <v>-4.466124624000001</v>
+      </c>
+      <c r="Q79">
+        <v>-3.599124624000001</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.2018523886022632</v>
+      </c>
+      <c r="T79">
+        <v>4.079499758522525</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>-0.007181502354421818</v>
+      </c>
+      <c r="W79">
+        <v>0.1850192419825073</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>-0.03264319252009917</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.1906348657050511</v>
+      </c>
+      <c r="C80">
+        <v>-17.92773375022963</v>
+      </c>
+      <c r="D80">
+        <v>8.818266249770367</v>
+      </c>
+      <c r="E80">
+        <v>20.176</v>
+      </c>
+      <c r="F80">
+        <v>30.576</v>
+      </c>
+      <c r="G80">
+        <v>3.83</v>
+      </c>
+      <c r="H80">
+        <v>28.8</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K80">
+        <v>0.867</v>
+      </c>
+      <c r="L80">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M80">
+        <v>5.616811200000001</v>
+      </c>
+      <c r="N80">
+        <v>-5.797811200000001</v>
+      </c>
+      <c r="O80">
+        <v>-1.275518464</v>
+      </c>
+      <c r="P80">
+        <v>-4.522292736000001</v>
+      </c>
+      <c r="Q80">
+        <v>-3.655292736000001</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.210604769902366</v>
+      </c>
+      <c r="T80">
+        <v>4.264931565728094</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>-0.007089431811416411</v>
+      </c>
+      <c r="W80">
+        <v>0.1850023286237572</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>-0.03222469005189277</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.1923788657050511</v>
+      </c>
+      <c r="C81">
+        <v>-18.40373610779491</v>
+      </c>
+      <c r="D81">
+        <v>8.734263892205098</v>
+      </c>
+      <c r="E81">
+        <v>20.568</v>
+      </c>
+      <c r="F81">
+        <v>30.968</v>
+      </c>
+      <c r="G81">
+        <v>3.83</v>
+      </c>
+      <c r="H81">
+        <v>28.8</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K81">
+        <v>0.867</v>
+      </c>
+      <c r="L81">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M81">
+        <v>5.688821600000001</v>
+      </c>
+      <c r="N81">
+        <v>-5.869821600000001</v>
+      </c>
+      <c r="O81">
+        <v>-1.291360752</v>
+      </c>
+      <c r="P81">
+        <v>-4.578460848000001</v>
+      </c>
+      <c r="Q81">
+        <v>-3.711460848000001</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.2201907113262883</v>
+      </c>
+      <c r="T81">
+        <v>4.468023545048481</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>-0.006999692168233924</v>
+      </c>
+      <c r="W81">
+        <v>0.1849858434513046</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>-0.03181678258288145</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.1941228657050511</v>
+      </c>
+      <c r="C82">
+        <v>-18.87815316246992</v>
+      </c>
+      <c r="D82">
+        <v>8.651846837530085</v>
+      </c>
+      <c r="E82">
+        <v>20.96</v>
+      </c>
+      <c r="F82">
+        <v>31.36</v>
+      </c>
+      <c r="G82">
+        <v>3.83</v>
+      </c>
+      <c r="H82">
+        <v>28.8</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K82">
+        <v>0.867</v>
+      </c>
+      <c r="L82">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M82">
+        <v>5.760832000000001</v>
+      </c>
+      <c r="N82">
+        <v>-5.941832000000001</v>
+      </c>
+      <c r="O82">
+        <v>-1.30720304</v>
+      </c>
+      <c r="P82">
+        <v>-4.634628960000001</v>
+      </c>
+      <c r="Q82">
+        <v>-3.767628960000001</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.2307352468926027</v>
+      </c>
+      <c r="T82">
+        <v>4.691424722300904</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>-0.006912196016131001</v>
+      </c>
+      <c r="W82">
+        <v>0.1849697704081633</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>-0.03141907280059542</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.1958668657050512</v>
+      </c>
+      <c r="C83">
+        <v>-19.35102937179911</v>
+      </c>
+      <c r="D83">
+        <v>8.570970628200893</v>
+      </c>
+      <c r="E83">
+        <v>21.352</v>
+      </c>
+      <c r="F83">
+        <v>31.75200000000001</v>
+      </c>
+      <c r="G83">
+        <v>3.83</v>
+      </c>
+      <c r="H83">
+        <v>28.8</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K83">
+        <v>0.867</v>
+      </c>
+      <c r="L83">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M83">
+        <v>5.832842400000001</v>
+      </c>
+      <c r="N83">
+        <v>-6.013842400000001</v>
+      </c>
+      <c r="O83">
+        <v>-1.323045328</v>
+      </c>
+      <c r="P83">
+        <v>-4.690797072000001</v>
+      </c>
+      <c r="Q83">
+        <v>-3.823797072000001</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.2423897335711608</v>
+      </c>
+      <c r="T83">
+        <v>4.938341812948321</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>-0.006826860262845432</v>
+      </c>
+      <c r="W83">
+        <v>0.1849540942302847</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>-0.03103118301293373</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.1976108657050512</v>
+      </c>
+      <c r="C84">
+        <v>-19.82240754639152</v>
+      </c>
+      <c r="D84">
+        <v>8.491592453608488</v>
+      </c>
+      <c r="E84">
+        <v>21.74400000000001</v>
+      </c>
+      <c r="F84">
+        <v>32.14400000000001</v>
+      </c>
+      <c r="G84">
+        <v>3.83</v>
+      </c>
+      <c r="H84">
+        <v>28.8</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K84">
+        <v>0.867</v>
+      </c>
+      <c r="L84">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M84">
+        <v>5.904852800000001</v>
+      </c>
+      <c r="N84">
+        <v>-6.085852800000001</v>
+      </c>
+      <c r="O84">
+        <v>-1.338887616</v>
+      </c>
+      <c r="P84">
+        <v>-4.746965184000001</v>
+      </c>
+      <c r="Q84">
+        <v>-3.879965184000001</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.255339163214003</v>
+      </c>
+      <c r="T84">
+        <v>5.212694135889895</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>-0.006743605869396097</v>
+      </c>
+      <c r="W84">
+        <v>0.1849388003982081</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>-0.03065275395180045</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.1993548657050511</v>
+      </c>
+      <c r="C85">
+        <v>-20.29232892548463</v>
+      </c>
+      <c r="D85">
+        <v>8.413671074515381</v>
+      </c>
+      <c r="E85">
+        <v>22.13600000000001</v>
+      </c>
+      <c r="F85">
+        <v>32.53600000000001</v>
+      </c>
+      <c r="G85">
+        <v>3.83</v>
+      </c>
+      <c r="H85">
+        <v>28.8</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K85">
+        <v>0.867</v>
+      </c>
+      <c r="L85">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M85">
+        <v>5.976863200000001</v>
+      </c>
+      <c r="N85">
+        <v>-6.157863200000001</v>
+      </c>
+      <c r="O85">
+        <v>-1.354729904</v>
+      </c>
+      <c r="P85">
+        <v>-4.803133296000001</v>
+      </c>
+      <c r="Q85">
+        <v>-3.936133296000001</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.2698120551677679</v>
+      </c>
+      <c r="T85">
+        <v>5.519323202706948</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>-0.006662357605909397</v>
+      </c>
+      <c r="W85">
+        <v>0.1849238750922056</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>-0.03028344366322444</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.2010988657050511</v>
+      </c>
+      <c r="C86">
+        <v>-20.76083324838567</v>
+      </c>
+      <c r="D86">
+        <v>8.337166751614332</v>
+      </c>
+      <c r="E86">
+        <v>22.52800000000001</v>
+      </c>
+      <c r="F86">
+        <v>32.928</v>
+      </c>
+      <c r="G86">
+        <v>3.83</v>
+      </c>
+      <c r="H86">
+        <v>28.8</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K86">
+        <v>0.867</v>
+      </c>
+      <c r="L86">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M86">
+        <v>6.048873600000001</v>
+      </c>
+      <c r="N86">
+        <v>-6.229873600000001</v>
+      </c>
+      <c r="O86">
+        <v>-1.370572192</v>
+      </c>
+      <c r="P86">
+        <v>-4.859301408000001</v>
+      </c>
+      <c r="Q86">
+        <v>-3.992301408000001</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.2860940586157532</v>
+      </c>
+      <c r="T86">
+        <v>5.864280902876128</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>-0.006583043824886666</v>
+      </c>
+      <c r="W86">
+        <v>0.1849093051506317</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>-0.02992292647675754</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.2028428657050511</v>
+      </c>
+      <c r="C87">
+        <v>-21.22795882205044</v>
+      </c>
+      <c r="D87">
+        <v>8.262041177949559</v>
+      </c>
+      <c r="E87">
+        <v>22.92</v>
+      </c>
+      <c r="F87">
+        <v>33.32</v>
+      </c>
+      <c r="G87">
+        <v>3.83</v>
+      </c>
+      <c r="H87">
+        <v>28.8</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K87">
+        <v>0.867</v>
+      </c>
+      <c r="L87">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M87">
+        <v>6.120884</v>
+      </c>
+      <c r="N87">
+        <v>-6.301884</v>
+      </c>
+      <c r="O87">
+        <v>-1.38641448</v>
+      </c>
+      <c r="P87">
+        <v>-4.91546952</v>
+      </c>
+      <c r="Q87">
+        <v>-4.04846952</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.3045469958568035</v>
+      </c>
+      <c r="T87">
+        <v>6.255232963067872</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>-0.006505596250476236</v>
+      </c>
+      <c r="W87">
+        <v>0.1848950780312125</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>-0.0295708920476192</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.2045868657050511</v>
+      </c>
+      <c r="C88">
+        <v>-21.69374258504097</v>
+      </c>
+      <c r="D88">
+        <v>8.188257414959034</v>
+      </c>
+      <c r="E88">
+        <v>23.312</v>
+      </c>
+      <c r="F88">
+        <v>33.712</v>
+      </c>
+      <c r="G88">
+        <v>3.83</v>
+      </c>
+      <c r="H88">
+        <v>28.8</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K88">
+        <v>0.867</v>
+      </c>
+      <c r="L88">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M88">
+        <v>6.192894400000001</v>
+      </c>
+      <c r="N88">
+        <v>-6.373894400000001</v>
+      </c>
+      <c r="O88">
+        <v>-1.402256768</v>
+      </c>
+      <c r="P88">
+        <v>-4.971637632000001</v>
+      </c>
+      <c r="Q88">
+        <v>-4.104637632000001</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.3256360669894323</v>
+      </c>
+      <c r="T88">
+        <v>6.702035317572719</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>-0.006429949782447442</v>
+      </c>
+      <c r="W88">
+        <v>0.1848811817750356</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>-0.02922704446567015</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.2063308657050512</v>
+      </c>
+      <c r="C89">
+        <v>-22.15822016808659</v>
+      </c>
+      <c r="D89">
+        <v>8.115779831913411</v>
+      </c>
+      <c r="E89">
+        <v>23.704</v>
+      </c>
+      <c r="F89">
+        <v>34.104</v>
+      </c>
+      <c r="G89">
+        <v>3.83</v>
+      </c>
+      <c r="H89">
+        <v>28.8</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K89">
+        <v>0.867</v>
+      </c>
+      <c r="L89">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M89">
+        <v>6.2649048</v>
+      </c>
+      <c r="N89">
+        <v>-6.4459048</v>
+      </c>
+      <c r="O89">
+        <v>-1.418099056</v>
+      </c>
+      <c r="P89">
+        <v>-5.027805744</v>
+      </c>
+      <c r="Q89">
+        <v>-4.160805744</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.3499696106040041</v>
+      </c>
+      <c r="T89">
+        <v>7.217576495847544</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>-0.006356042313683679</v>
+      </c>
+      <c r="W89">
+        <v>0.1848676049730237</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>-0.02889110142583484</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.2080748657050512</v>
+      </c>
+      <c r="C90">
+        <v>-22.62142595145691</v>
+      </c>
+      <c r="D90">
+        <v>8.044574048543096</v>
+      </c>
+      <c r="E90">
+        <v>24.096</v>
+      </c>
+      <c r="F90">
+        <v>34.496</v>
+      </c>
+      <c r="G90">
+        <v>3.83</v>
+      </c>
+      <c r="H90">
+        <v>28.8</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K90">
+        <v>0.867</v>
+      </c>
+      <c r="L90">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M90">
+        <v>6.336915200000001</v>
+      </c>
+      <c r="N90">
+        <v>-6.517915200000001</v>
+      </c>
+      <c r="O90">
+        <v>-1.433941344</v>
+      </c>
+      <c r="P90">
+        <v>-5.083973856000001</v>
+      </c>
+      <c r="Q90">
+        <v>-4.216973856000001</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.3783587448210045</v>
+      </c>
+      <c r="T90">
+        <v>7.819041203834841</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>-0.006283814560119091</v>
+      </c>
+      <c r="W90">
+        <v>0.1848543367346939</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>-0.02856279345508672</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.2098188657050511</v>
+      </c>
+      <c r="C91">
+        <v>-23.08339311934073</v>
+      </c>
+      <c r="D91">
+        <v>7.974606880659277</v>
+      </c>
+      <c r="E91">
+        <v>24.48800000000001</v>
+      </c>
+      <c r="F91">
+        <v>34.88800000000001</v>
+      </c>
+      <c r="G91">
+        <v>3.83</v>
+      </c>
+      <c r="H91">
+        <v>28.8</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K91">
+        <v>0.867</v>
+      </c>
+      <c r="L91">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M91">
+        <v>6.408925600000001</v>
+      </c>
+      <c r="N91">
+        <v>-6.589925600000001</v>
+      </c>
+      <c r="O91">
+        <v>-1.449783632</v>
+      </c>
+      <c r="P91">
+        <v>-5.140141968000001</v>
+      </c>
+      <c r="Q91">
+        <v>-4.273141968000001</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.411909539804732</v>
+      </c>
+      <c r="T91">
+        <v>8.529863131456189</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>-0.006213209902140224</v>
+      </c>
+      <c r="W91">
+        <v>0.1848413666590231</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>-0.02824186319154642</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.2115628657050511</v>
+      </c>
+      <c r="C92">
+        <v>-23.54415371141179</v>
+      </c>
+      <c r="D92">
+        <v>7.905846288588211</v>
+      </c>
+      <c r="E92">
+        <v>24.88</v>
+      </c>
+      <c r="F92">
+        <v>35.28</v>
+      </c>
+      <c r="G92">
+        <v>3.83</v>
+      </c>
+      <c r="H92">
+        <v>28.8</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K92">
+        <v>0.867</v>
+      </c>
+      <c r="L92">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M92">
+        <v>6.480936000000001</v>
+      </c>
+      <c r="N92">
+        <v>-6.661936000000001</v>
+      </c>
+      <c r="O92">
+        <v>-1.46562592</v>
+      </c>
+      <c r="P92">
+        <v>-5.196310080000001</v>
+      </c>
+      <c r="Q92">
+        <v>-4.329310080000001</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.4521704937852053</v>
+      </c>
+      <c r="T92">
+        <v>9.382849444601808</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>-0.006144174236560889</v>
+      </c>
+      <c r="W92">
+        <v>0.1848286848072562</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>-0.02792806471164044</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.2133068657050511</v>
+      </c>
+      <c r="C93">
+        <v>-24.00373867174951</v>
+      </c>
+      <c r="D93">
+        <v>7.838261328250491</v>
+      </c>
+      <c r="E93">
+        <v>25.27200000000001</v>
+      </c>
+      <c r="F93">
+        <v>35.672</v>
+      </c>
+      <c r="G93">
+        <v>3.83</v>
+      </c>
+      <c r="H93">
+        <v>28.8</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K93">
+        <v>0.867</v>
+      </c>
+      <c r="L93">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M93">
+        <v>6.552946400000001</v>
+      </c>
+      <c r="N93">
+        <v>-6.733946400000001</v>
+      </c>
+      <c r="O93">
+        <v>-1.481468208</v>
+      </c>
+      <c r="P93">
+        <v>-5.252478192000001</v>
+      </c>
+      <c r="Q93">
+        <v>-4.385478192000001</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.5013783264280061</v>
+      </c>
+      <c r="T93">
+        <v>10.42538827177979</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>-0.006076655838356923</v>
+      </c>
+      <c r="W93">
+        <v>0.1848162816775062</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>-0.02762116290162231</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.2150508657050511</v>
+      </c>
+      <c r="C94">
+        <v>-24.46217789527174</v>
+      </c>
+      <c r="D94">
+        <v>7.77182210472827</v>
+      </c>
+      <c r="E94">
+        <v>25.66400000000001</v>
+      </c>
+      <c r="F94">
+        <v>36.06400000000001</v>
+      </c>
+      <c r="G94">
+        <v>3.83</v>
+      </c>
+      <c r="H94">
+        <v>28.8</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K94">
+        <v>0.867</v>
+      </c>
+      <c r="L94">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M94">
+        <v>6.624956800000001</v>
+      </c>
+      <c r="N94">
+        <v>-6.805956800000001</v>
+      </c>
+      <c r="O94">
+        <v>-1.497310496</v>
+      </c>
+      <c r="P94">
+        <v>-5.308646304000002</v>
+      </c>
+      <c r="Q94">
+        <v>-4.441646304000002</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.5628881172315069</v>
+      </c>
+      <c r="T94">
+        <v>11.72856180575227</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>-0.00601060523141826</v>
+      </c>
+      <c r="W94">
+        <v>0.1848041481810115</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>-0.02732093287008297</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.2167948657050512</v>
+      </c>
+      <c r="C95">
+        <v>-24.91950027182592</v>
+      </c>
+      <c r="D95">
+        <v>7.706499728174081</v>
+      </c>
+      <c r="E95">
+        <v>26.056</v>
+      </c>
+      <c r="F95">
+        <v>36.456</v>
+      </c>
+      <c r="G95">
+        <v>3.83</v>
+      </c>
+      <c r="H95">
+        <v>28.8</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K95">
+        <v>0.867</v>
+      </c>
+      <c r="L95">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M95">
+        <v>6.6969672</v>
+      </c>
+      <c r="N95">
+        <v>-6.877967200000001</v>
+      </c>
+      <c r="O95">
+        <v>-1.513152784</v>
+      </c>
+      <c r="P95">
+        <v>-5.364814416000001</v>
+      </c>
+      <c r="Q95">
+        <v>-4.497814416000001</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.6419721339788652</v>
+      </c>
+      <c r="T95">
+        <v>13.40407063514545</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>-0.00594597506763957</v>
+      </c>
+      <c r="W95">
+        <v>0.1847922756199254</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>-0.02702715939836176</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2185388657050512</v>
+      </c>
+      <c r="C96">
+        <v>-25.3757337280753</v>
+      </c>
+      <c r="D96">
+        <v>7.642266271924701</v>
+      </c>
+      <c r="E96">
+        <v>26.44800000000001</v>
+      </c>
+      <c r="F96">
+        <v>36.84800000000001</v>
+      </c>
+      <c r="G96">
+        <v>3.83</v>
+      </c>
+      <c r="H96">
+        <v>28.8</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K96">
+        <v>0.867</v>
+      </c>
+      <c r="L96">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M96">
+        <v>6.768977600000001</v>
+      </c>
+      <c r="N96">
+        <v>-6.949977600000001</v>
+      </c>
+      <c r="O96">
+        <v>-1.528995072</v>
+      </c>
+      <c r="P96">
+        <v>-5.420982528000001</v>
+      </c>
+      <c r="Q96">
+        <v>-4.553982528000001</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.7474174896420095</v>
+      </c>
+      <c r="T96">
+        <v>15.63808240766969</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>-0.005882720013728511</v>
+      </c>
+      <c r="W96">
+        <v>0.1847806556665219</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>-0.0267396364260386</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2202828657050512</v>
+      </c>
+      <c r="C97">
+        <v>-25.83090526730764</v>
+      </c>
+      <c r="D97">
+        <v>7.579094732692366</v>
+      </c>
+      <c r="E97">
+        <v>26.84</v>
+      </c>
+      <c r="F97">
+        <v>37.24</v>
+      </c>
+      <c r="G97">
+        <v>3.83</v>
+      </c>
+      <c r="H97">
+        <v>28.8</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K97">
+        <v>0.867</v>
+      </c>
+      <c r="L97">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M97">
+        <v>6.840988</v>
+      </c>
+      <c r="N97">
+        <v>-7.021988</v>
+      </c>
+      <c r="O97">
+        <v>-1.54483736</v>
+      </c>
+      <c r="P97">
+        <v>-5.477150640000001</v>
+      </c>
+      <c r="Q97">
+        <v>-4.610150640000001</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>0.8950409875704118</v>
+      </c>
+      <c r="T97">
+        <v>18.76569888920364</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>-0.005820796645162948</v>
+      </c>
+      <c r="W97">
+        <v>0.1847692803437164</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>-0.02645816656892253</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2220268657050511</v>
+      </c>
+      <c r="C98">
+        <v>-26.28504100728578</v>
+      </c>
+      <c r="D98">
+        <v>7.516958992714219</v>
+      </c>
+      <c r="E98">
+        <v>27.232</v>
+      </c>
+      <c r="F98">
+        <v>37.632</v>
+      </c>
+      <c r="G98">
+        <v>3.83</v>
+      </c>
+      <c r="H98">
+        <v>28.8</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K98">
+        <v>0.867</v>
+      </c>
+      <c r="L98">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M98">
+        <v>6.912998399999999</v>
+      </c>
+      <c r="N98">
+        <v>-7.093998399999999</v>
+      </c>
+      <c r="O98">
+        <v>-1.560679648</v>
+      </c>
+      <c r="P98">
+        <v>-5.533318752</v>
+      </c>
+      <c r="Q98">
+        <v>-4.666318752</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.116476234463012</v>
+      </c>
+      <c r="T98">
+        <v>23.4571236115045</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>-0.005760163346775835</v>
+      </c>
+      <c r="W98">
+        <v>0.1847581420068027</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>-0.02618256066716285</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2237708657050512</v>
+      </c>
+      <c r="C99">
+        <v>-26.73816621625156</v>
+      </c>
+      <c r="D99">
+        <v>7.455833783748437</v>
+      </c>
+      <c r="E99">
+        <v>27.624</v>
+      </c>
+      <c r="F99">
+        <v>38.024</v>
+      </c>
+      <c r="G99">
+        <v>3.83</v>
+      </c>
+      <c r="H99">
+        <v>28.8</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K99">
+        <v>0.867</v>
+      </c>
+      <c r="L99">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M99">
+        <v>6.9850088</v>
+      </c>
+      <c r="N99">
+        <v>-7.1660088</v>
+      </c>
+      <c r="O99">
+        <v>-1.576521936</v>
+      </c>
+      <c r="P99">
+        <v>-5.589486864</v>
+      </c>
+      <c r="Q99">
+        <v>-4.722486864</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.485534979284017</v>
+      </c>
+      <c r="T99">
+        <v>31.27616481533934</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>-0.005700780219489485</v>
+      </c>
+      <c r="W99">
+        <v>0.1847472333263202</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>-0.02591263736131588</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2255148657050511</v>
+      </c>
+      <c r="C100">
+        <v>-27.19030534718716</v>
+      </c>
+      <c r="D100">
+        <v>7.395694652812844</v>
+      </c>
+      <c r="E100">
+        <v>28.01600000000001</v>
+      </c>
+      <c r="F100">
+        <v>38.416</v>
+      </c>
+      <c r="G100">
+        <v>3.83</v>
+      </c>
+      <c r="H100">
+        <v>28.8</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K100">
+        <v>0.867</v>
+      </c>
+      <c r="L100">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M100">
+        <v>7.057019200000001</v>
+      </c>
+      <c r="N100">
+        <v>-7.238019200000001</v>
+      </c>
+      <c r="O100">
+        <v>-1.592364224</v>
+      </c>
+      <c r="P100">
+        <v>-5.645654976000001</v>
+      </c>
+      <c r="Q100">
+        <v>-4.778654976000001</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>2.223652468926025</v>
+      </c>
+      <c r="T100">
+        <v>46.914247223009</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>-0.00564260899276</v>
+      </c>
+      <c r="W100">
+        <v>0.18473654727197</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>-0.02564822269436373</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2272588657050512</v>
+      </c>
+      <c r="C101">
+        <v>-27.64148207043162</v>
+      </c>
+      <c r="D101">
+        <v>7.336517929568377</v>
+      </c>
+      <c r="E101">
+        <v>28.408</v>
+      </c>
+      <c r="F101">
+        <v>38.808</v>
+      </c>
+      <c r="G101">
+        <v>3.83</v>
+      </c>
+      <c r="H101">
+        <v>28.8</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K101">
+        <v>0.867</v>
+      </c>
+      <c r="L101">
+        <v>-0.1809999999999999</v>
+      </c>
+      <c r="M101">
+        <v>7.1290296</v>
+      </c>
+      <c r="N101">
+        <v>-7.3100296</v>
+      </c>
+      <c r="O101">
+        <v>-1.608206512</v>
+      </c>
+      <c r="P101">
+        <v>-5.701823088</v>
+      </c>
+      <c r="Q101">
+        <v>-4.834823088</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>4.43800493785205</v>
+      </c>
+      <c r="T101">
+        <v>93.82849444601801</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>-0.005585612942328081</v>
+      </c>
+      <c r="W101">
+        <v>0.1847260770975057</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>-0.02538914973785489</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
